--- a/excel_output2018070309.xlsx
+++ b/excel_output2018070309.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t xml:space="preserve">trans_code </t>
   </si>
@@ -194,7 +194,7 @@
     <t>DP0023</t>
   </si>
   <si>
-    <t>[184, 194, 893, 597, 549, 363, 599, 864, 378, 1002]</t>
+    <t>[184, 194, 893, 597, 549, 363, 599, 864, 378, 1009]</t>
   </si>
   <si>
     <t>DP0024</t>
@@ -206,7 +206,7 @@
     <t>DP0025</t>
   </si>
   <si>
-    <t>[368, 953, 256, 253, 615, 263, 875, 1053, 506, 83]</t>
+    <t>[368, 953, 256, 253, 615, 263, 875, 1036, 558, 83]</t>
   </si>
   <si>
     <t>DP0026</t>
@@ -218,697 +218,727 @@
     <t>DP0027</t>
   </si>
   <si>
+    <t>[770, 137, 196, 872, 377, 326, 152, 556, 1020]</t>
+  </si>
+  <si>
+    <t>DP0028</t>
+  </si>
+  <si>
     <t>[20, 215, 916, 56, 962, 361, 560, 1056, 295, 829]</t>
   </si>
   <si>
-    <t>DP0028</t>
+    <t>DP0029</t>
   </si>
   <si>
     <t>[203, 234, 968, 239, 405, 696, 519, 280, 169, 1009]</t>
   </si>
   <si>
-    <t>DP0029</t>
+    <t>DP0030</t>
   </si>
   <si>
     <t>[111, 487, 933, 213, 1, 192, 762, 469, 572, 1045]</t>
   </si>
   <si>
-    <t>DP0030</t>
-  </si>
-  <si>
-    <t>[886, 143, 444, 147, 26, 1056, 984, 713, 579, 845]</t>
-  </si>
-  <si>
     <t>DP0031</t>
   </si>
   <si>
+    <t>[886, 143, 444, 147, 26, 1010, 359, 957, 869, 235]</t>
+  </si>
+  <si>
+    <t>DP0032</t>
+  </si>
+  <si>
     <t>[688, 67, 851, 931, 358, 614, 1007, 584, 231, 620]</t>
   </si>
   <si>
-    <t>DP0032</t>
-  </si>
-  <si>
-    <t>[185, 987, 500, 50, 39, 51, 1083, 527, 551]</t>
-  </si>
-  <si>
     <t>DP0033</t>
   </si>
   <si>
+    <t>[185, 987, 500, 50, 39, 51, 1010, 774, 431]</t>
+  </si>
+  <si>
+    <t>DP0034</t>
+  </si>
+  <si>
+    <t>[956, 540, 424, 421, 390, 935, 537, 1007, 3, 585]</t>
+  </si>
+  <si>
+    <t>DP0035</t>
+  </si>
+  <si>
     <t>[288, 865, 57, 442, 92, 710, 717, 8, 401]</t>
   </si>
   <si>
-    <t>DP0034</t>
+    <t>DP0036</t>
   </si>
   <si>
     <t>[645, 767, 553, 463, 37, 454, 612, 230, 654, 141]</t>
   </si>
   <si>
-    <t>DP0035</t>
+    <t>DP0037</t>
   </si>
   <si>
     <t>[738, 603, 907, 609, 524, 611, 255, 810, 356, 475]</t>
   </si>
   <si>
-    <t>DP0036</t>
+    <t>DP0038</t>
   </si>
   <si>
     <t>[943, 18, 341, 887, 485, 648, 151, 923, 508, 967]</t>
   </si>
   <si>
-    <t>DP0037</t>
+    <t>DP0039</t>
   </si>
   <si>
     <t>[930, 950, 927, 466, 318, 465, 842, 881, 918, 675, 1014]</t>
   </si>
   <si>
-    <t>DP0038</t>
+    <t>DP0040</t>
   </si>
   <si>
     <t>[870, 797, 30, 186, 647, 204, 563, 677, 964, 125, 1014]</t>
   </si>
   <si>
-    <t>DP0039</t>
+    <t>DP0041</t>
   </si>
   <si>
     <t>[746, 849, 385, 832, 122, 760, 297, 890, 905, 1075]</t>
   </si>
   <si>
-    <t>DP0040</t>
-  </si>
-  <si>
-    <t>[251, 988, 805, 484, 735, 726, 195, 993, 201, 1097]</t>
-  </si>
-  <si>
-    <t>DP0041</t>
+    <t>DP0042</t>
+  </si>
+  <si>
+    <t>[251, 988, 805, 484, 735, 726, 195, 993, 506, 201, 1097]</t>
+  </si>
+  <si>
+    <t>DP0043</t>
   </si>
   <si>
     <t>[720, 502, 429, 25, 948, 940, 314, 784]</t>
   </si>
   <si>
-    <t>DP0042</t>
+    <t>DP0044</t>
   </si>
   <si>
     <t>[719, 891, 819, 730, 571, 672, 82, 479, 509, 1090]</t>
   </si>
   <si>
-    <t>DP0043</t>
+    <t>DP0045</t>
   </si>
   <si>
     <t>[364, 409, 416, 60, 236, 308, 209, 49, 386, 1100]</t>
   </si>
   <si>
-    <t>DP0044</t>
+    <t>DP0046</t>
   </si>
   <si>
     <t>[42, 670, 35, 402, 588, 112, 706, 1006]</t>
   </si>
   <si>
-    <t>DP0045</t>
+    <t>DP0047</t>
   </si>
   <si>
     <t>[384, 743, 966, 859, 912, 46, 461, 90, 1081]</t>
   </si>
   <si>
-    <t>DP0046</t>
+    <t>DP0048</t>
   </si>
   <si>
     <t>[277, 690, 123, 498, 823, 834, 381, 505, 617, 1016]</t>
   </si>
   <si>
-    <t>DP0047</t>
-  </si>
-  <si>
-    <t>[483, 52, 379, 159, 228, 353, 711, 737, 1100, 104]</t>
-  </si>
-  <si>
-    <t>DP0048</t>
+    <t>DP0049</t>
+  </si>
+  <si>
+    <t>[986, 61, 370, 636, 443, 105, 704, 75, 1033]</t>
+  </si>
+  <si>
+    <t>DP0050</t>
+  </si>
+  <si>
+    <t>[698, 582, 419, 976, 621, 951, 848, 23, 1099]</t>
+  </si>
+  <si>
+    <t>DP0051</t>
+  </si>
+  <si>
+    <t>[914, 156, 728, 908, 414, 245, 53, 619, 895, 1031]</t>
+  </si>
+  <si>
+    <t>DP0052</t>
+  </si>
+  <si>
+    <t>[483, 52, 379, 159, 228, 353, 711, 737, 1053, 983]</t>
+  </si>
+  <si>
+    <t>DP0053</t>
   </si>
   <si>
     <t>[115, 821, 258, 452, 121, 300, 48, 110, 1007]</t>
   </si>
   <si>
-    <t>DP0049</t>
+    <t>DP0054</t>
   </si>
   <si>
     <t>[403, 422, 302, 687, 219, 260, 892, 375, 1009]</t>
   </si>
   <si>
-    <t>DP0050</t>
+    <t>DP0055</t>
   </si>
   <si>
     <t>[312, 70, 21, 197, 139, 138, 1007]</t>
   </si>
   <si>
-    <t>DP0051</t>
-  </si>
-  <si>
-    <t>[474, 179, 985, 19, 359, 1010, 869]</t>
-  </si>
-  <si>
-    <t>DP0052</t>
+    <t>DP0056</t>
+  </si>
+  <si>
+    <t>[474, 179, 985, 19, 527, 1045, 274]</t>
+  </si>
+  <si>
+    <t>DP0057</t>
   </si>
   <si>
     <t>[577, 843, 281, 254, 749, 689, 716, 476, 229]</t>
   </si>
   <si>
-    <t>DP0053</t>
+    <t>DP0058</t>
   </si>
   <si>
     <t>[462, 813, 478, 754, 593, 974, 975, 43, 510, 919]</t>
   </si>
   <si>
-    <t>DP0054</t>
+    <t>DP0059</t>
   </si>
   <si>
     <t>[831, 158, 850, 58, 36, 759, 570, 248, 148, 799]</t>
   </si>
   <si>
-    <t>DP0055</t>
+    <t>DP0060</t>
   </si>
   <si>
     <t>[899, 682, 45, 806, 814, 680, 246, 2, 223, 11]</t>
   </si>
   <si>
-    <t>DP0056</t>
+    <t>DP0061</t>
   </si>
   <si>
     <t>[820, 54, 741, 107, 992, 40, 748, 166, 27]</t>
   </si>
   <si>
-    <t>DP0057</t>
+    <t>DP0062</t>
   </si>
   <si>
     <t>[128, 17, 715, 902, 84, 79, 586, 557, 208, 668]</t>
   </si>
   <si>
-    <t>DP0058</t>
+    <t>DP0063</t>
   </si>
   <si>
     <t>[816, 868, 796, 644, 207, 71, 168, 803, 66, 383, 1018]</t>
   </si>
   <si>
-    <t>DP0059</t>
+    <t>DP0064</t>
   </si>
   <si>
     <t>[871, 541, 699, 392, 93, 470, 217, 136, 200, 880]</t>
   </si>
   <si>
-    <t>DP0060</t>
+    <t>DP0065</t>
   </si>
   <si>
     <t>[925, 511, 188, 781, 425, 418, 292, 38, 494, 776, 1035]</t>
   </si>
   <si>
-    <t>DP0061</t>
+    <t>DP0066</t>
   </si>
   <si>
     <t>[336, 369, 411, 642, 659, 705, 898, 182, 44, 1018]</t>
   </si>
   <si>
-    <t>DP0062</t>
+    <t>DP0067</t>
   </si>
   <si>
     <t>[817, 673, 157, 199, 324, 435, 909, 837, 835]</t>
   </si>
   <si>
-    <t>DP0063</t>
+    <t>DP0068</t>
   </si>
   <si>
     <t>[266, 562, 941, 310, 752, 393, 861, 960, 119, 28, 1094]</t>
   </si>
   <si>
-    <t>DP0064</t>
+    <t>DP0069</t>
   </si>
   <si>
     <t>[809, 328, 334, 430, 771, 685, 656, 10, 994, 1071]</t>
   </si>
   <si>
-    <t>DP0065</t>
+    <t>DP0070</t>
   </si>
   <si>
     <t>[751, 458, 332, 142, 613, 523, 155, 765, 913, 87, 1025]</t>
   </si>
   <si>
-    <t>DP0066</t>
+    <t>DP0071</t>
   </si>
   <si>
     <t>[794, 874, 828, 555, 432, 140, 601, 515, 812, 490, 1003]</t>
   </si>
   <si>
-    <t>DP0067</t>
+    <t>DP0072</t>
   </si>
   <si>
     <t>[934, 329, 78, 88, 365, 447, 604, 906]</t>
   </si>
   <si>
-    <t>DP0068</t>
+    <t>DP0073</t>
   </si>
   <si>
     <t>[273, 660, 574, 102, 921, 150, 944, 662, 669, 1027]</t>
   </si>
   <si>
-    <t>DP0069</t>
+    <t>DP0074</t>
   </si>
   <si>
     <t>[404, 247, 271, 144, 789, 607]</t>
   </si>
   <si>
-    <t>DP0070</t>
+    <t>DP0075</t>
   </si>
   <si>
     <t>[366, 467, 860, 108, 727, 942]</t>
   </si>
   <si>
-    <t>DP0071</t>
+    <t>DP0076</t>
   </si>
   <si>
     <t>[777, 665, 998, 554, 376, 701, 183, 80, 178, 1079]</t>
   </si>
   <si>
-    <t>DP0072</t>
+    <t>DP0077</t>
   </si>
   <si>
     <t>[59, 407, 627, 840, 546, 929, 838, 1065]</t>
   </si>
   <si>
-    <t>DP0073</t>
+    <t>DP0078</t>
   </si>
   <si>
     <t>[282, 296, 145, 32]</t>
   </si>
   <si>
-    <t>DP0074</t>
+    <t>DP0079</t>
   </si>
   <si>
     <t>[453, 991, 578, 854, 426, 753, 576]</t>
   </si>
   <si>
-    <t>DP0075</t>
+    <t>DP0080</t>
   </si>
   <si>
     <t>[420, 240, 559, 15, 904, 624, 847, 1057]</t>
   </si>
   <si>
-    <t>DP0076</t>
+    <t>DP0081</t>
   </si>
   <si>
     <t>[712, 655, 233, 321, 160, 457, 971, 970, 436, 1080]</t>
   </si>
   <si>
-    <t>DP0077</t>
+    <t>DP0082</t>
   </si>
   <si>
     <t>[792, 643, 995, 127]</t>
   </si>
   <si>
-    <t>DP0078</t>
+    <t>DP0083</t>
   </si>
   <si>
     <t>[733, 244, 631, 946, 639, 1100]</t>
   </si>
   <si>
-    <t>DP0079</t>
+    <t>DP0084</t>
   </si>
   <si>
     <t>[100, 227, 878, 117, 96, 667, 146, 433, 1081]</t>
   </si>
   <si>
-    <t>DP0080</t>
+    <t>DP0085</t>
   </si>
   <si>
     <t>[129, 347, 729, 62, 926, 337, 731, 1074]</t>
   </si>
   <si>
-    <t>DP0081</t>
+    <t>DP0086</t>
   </si>
   <si>
     <t>[592, 575, 637, 766, 350, 521, 702, 1045]</t>
   </si>
   <si>
-    <t>DP0082</t>
-  </si>
-  <si>
-    <t>[355, 174, 691, 306, 633, 162, 795, 1010, 235]</t>
-  </si>
-  <si>
-    <t>DP0083</t>
-  </si>
-  <si>
-    <t>[262, 780, 736, 388, 774, 787, 1056, 858]</t>
-  </si>
-  <si>
-    <t>DP0084</t>
+    <t>DP0087</t>
+  </si>
+  <si>
+    <t>[355, 174, 691, 306, 633, 162, 984, 713, 579, 1056]</t>
+  </si>
+  <si>
+    <t>DP0088</t>
+  </si>
+  <si>
+    <t>[262, 780, 736, 388, 315, 439, 551, 1045]</t>
+  </si>
+  <si>
+    <t>DP0089</t>
   </si>
   <si>
     <t>[804, 768, 901, 649, 491, 882, 1009]</t>
   </si>
   <si>
-    <t>DP0085</t>
-  </si>
-  <si>
-    <t>[775, 958, 957, 274, 708, 12, 1010]</t>
-  </si>
-  <si>
-    <t>DP0086</t>
-  </si>
-  <si>
-    <t>[132, 589, 278, 739, 65, 431, 1010]</t>
-  </si>
-  <si>
-    <t>DP0087</t>
+    <t>DP0090</t>
+  </si>
+  <si>
+    <t>[775, 958, 708, 77, 889, 1010]</t>
+  </si>
+  <si>
+    <t>DP0091</t>
+  </si>
+  <si>
+    <t>[132, 589, 278, 787, 739, 795, 1056]</t>
+  </si>
+  <si>
+    <t>DP0092</t>
   </si>
   <si>
     <t>[802, 170, 400, 468, 544, 352, 932, 732]</t>
   </si>
   <si>
-    <t>DP0088</t>
+    <t>DP0093</t>
   </si>
   <si>
     <t>[539, 354, 954, 616, 180, 561, 307, 520]</t>
   </si>
   <si>
-    <t>DP0089</t>
+    <t>DP0094</t>
   </si>
   <si>
     <t>[602, 284, 319, 164, 171, 477, 191]</t>
   </si>
   <si>
-    <t>DP0090</t>
+    <t>DP0095</t>
   </si>
   <si>
     <t>[189, 428, 489, 440, 216, 391, 94, 650, 600]</t>
   </si>
   <si>
-    <t>DP0091</t>
+    <t>DP0096</t>
   </si>
   <si>
     <t>[846, 473, 154]</t>
   </si>
   <si>
-    <t>DP0092</t>
+    <t>DP0097</t>
   </si>
   <si>
     <t>[939, 237, 264, 99, 550]</t>
   </si>
   <si>
-    <t>DP0093</t>
+    <t>DP0098</t>
   </si>
   <si>
     <t>[14, 389, 538, 446, 495, 676, 969, 852, 692]</t>
   </si>
   <si>
-    <t>DP0094</t>
+    <t>DP0099</t>
   </si>
   <si>
     <t>[826, 922, 531, 101, 945, 791, 259]</t>
   </si>
   <si>
-    <t>DP0095</t>
+    <t>DP0100</t>
   </si>
   <si>
     <t>[338, 41, 568, 135, 289]</t>
   </si>
   <si>
-    <t>DP0096</t>
+    <t>DP0101</t>
   </si>
   <si>
     <t>[910, 349, 63, 130, 47, 472]</t>
   </si>
   <si>
-    <t>DP0097</t>
+    <t>DP0102</t>
   </si>
   <si>
     <t>[133, 707, 664, 290, 496, 936, 265]</t>
   </si>
   <si>
-    <t>DP0098</t>
+    <t>DP0103</t>
   </si>
   <si>
     <t>[351, 455, 980, 785]</t>
   </si>
   <si>
-    <t>DP0099</t>
+    <t>DP0104</t>
   </si>
   <si>
     <t>[399, 275, 410, 973, 202, 883]</t>
   </si>
   <si>
-    <t>DP0100</t>
+    <t>DP0105</t>
   </si>
   <si>
     <t>[226, 581, 481, 438, 345]</t>
   </si>
   <si>
-    <t>DP0101</t>
+    <t>DP0106</t>
   </si>
   <si>
     <t>[663, 686, 311]</t>
   </si>
   <si>
-    <t>DP0102</t>
+    <t>DP0107</t>
   </si>
   <si>
     <t>[190, 327, 740, 857]</t>
   </si>
   <si>
-    <t>DP0103</t>
-  </si>
-  <si>
-    <t>[622, 573, 839, 917, 406, 382, 346, 298, 1060]</t>
-  </si>
-  <si>
-    <t>DP0104</t>
+    <t>DP0108</t>
+  </si>
+  <si>
+    <t>[622, 573, 839, 917, 406, 382, 104, 346, 1004]</t>
+  </si>
+  <si>
+    <t>DP0109</t>
   </si>
   <si>
     <t>[387, 268, 333]</t>
   </si>
   <si>
-    <t>DP0105</t>
+    <t>DP0110</t>
   </si>
   <si>
     <t>[653, 681, 598, 811, 165, 305, 1050]</t>
   </si>
   <si>
-    <t>DP0106</t>
+    <t>DP0111</t>
   </si>
   <si>
     <t>[450, 303, 362, 242, 629, 1039]</t>
   </si>
   <si>
-    <t>DP0107</t>
+    <t>DP0112</t>
   </si>
   <si>
     <t>[725, 924, 372, 252, 241, 1068]</t>
   </si>
   <si>
-    <t>DP0108</t>
-  </si>
-  <si>
-    <t>[98, 635, 464, 567, 528, 632, 1100]</t>
-  </si>
-  <si>
-    <t>DP0109</t>
-  </si>
-  <si>
-    <t>[623, 225, 343, 952, 439, 315, 888, 1045]</t>
-  </si>
-  <si>
-    <t>DP0110</t>
-  </si>
-  <si>
-    <t>[583, 658, 833, 13, 547, 3, 1002]</t>
-  </si>
-  <si>
-    <t>DP0111</t>
+    <t>DP0113</t>
+  </si>
+  <si>
+    <t>[98, 635, 464, 567, 528, 632, 858, 845, 1056]</t>
+  </si>
+  <si>
+    <t>DP0114</t>
+  </si>
+  <si>
+    <t>[623, 225, 343, 952, 594, 547, 1089]</t>
+  </si>
+  <si>
+    <t>DP0115</t>
+  </si>
+  <si>
+    <t>[583, 658, 833, 13, 371, 1074]</t>
+  </si>
+  <si>
+    <t>DP0116</t>
   </si>
   <si>
     <t>[978, 325, 69, 530, 638, 68, 1001]</t>
   </si>
   <si>
-    <t>DP0112</t>
+    <t>DP0117</t>
   </si>
   <si>
     <t>[745, 55]</t>
   </si>
   <si>
-    <t>DP0113</t>
+    <t>DP0118</t>
   </si>
   <si>
     <t>[423, 532, 257, 504]</t>
   </si>
   <si>
-    <t>DP0114</t>
+    <t>DP0119</t>
   </si>
   <si>
     <t>[778, 417, 33, 779, 309]</t>
   </si>
   <si>
-    <t>DP0115</t>
+    <t>DP0120</t>
   </si>
   <si>
     <t>[618]</t>
   </si>
   <si>
-    <t>DP0116</t>
+    <t>DP0121</t>
   </si>
   <si>
     <t>[793, 790]</t>
   </si>
   <si>
-    <t>DP0117</t>
+    <t>DP0122</t>
   </si>
   <si>
     <t>[124, 714, 293, 807]</t>
   </si>
   <si>
-    <t>DP0118</t>
+    <t>DP0123</t>
   </si>
   <si>
     <t>[161, 591, 652]</t>
   </si>
   <si>
-    <t>DP0119</t>
+    <t>DP0124</t>
   </si>
   <si>
     <t>[181, 897, 815, 434]</t>
   </si>
   <si>
-    <t>DP0120</t>
+    <t>DP0125</t>
   </si>
   <si>
     <t>[718]</t>
   </si>
   <si>
-    <t>DP0121</t>
+    <t>DP0126</t>
   </si>
   <si>
     <t>[757, 95]</t>
   </si>
   <si>
-    <t>DP0122</t>
+    <t>DP0127</t>
   </si>
   <si>
     <t>[330, 287, 471]</t>
   </si>
   <si>
-    <t>DP0123</t>
+    <t>DP0128</t>
   </si>
   <si>
     <t>[661, 516, 545]</t>
   </si>
   <si>
-    <t>DP0124</t>
+    <t>DP0129</t>
   </si>
   <si>
     <t>[221, 750, 342]</t>
   </si>
   <si>
-    <t>DP0125</t>
+    <t>DP0130</t>
   </si>
   <si>
     <t>[818, 786]</t>
   </si>
   <si>
-    <t>DP0126</t>
-  </si>
-  <si>
-    <t>[270, 594, 395, 1045]</t>
-  </si>
-  <si>
-    <t>DP0127</t>
+    <t>DP0131</t>
+  </si>
+  <si>
+    <t>[270, 1089]</t>
+  </si>
+  <si>
+    <t>DP0132</t>
   </si>
   <si>
     <t>[678]</t>
   </si>
   <si>
-    <t>DP0128</t>
-  </si>
-  <si>
-    <t>[558, 983]</t>
-  </si>
-  <si>
-    <t>DP0129</t>
+    <t>DP0133</t>
   </si>
   <si>
     <t>[373, 979, 499]</t>
   </si>
   <si>
-    <t>DP0130</t>
+    <t>DP0134</t>
   </si>
   <si>
     <t>[512]</t>
   </si>
   <si>
-    <t>DP0131</t>
-  </si>
-  <si>
-    <t>[761, 74, 86, 276]</t>
-  </si>
-  <si>
-    <t>DP0132</t>
+    <t>DP0135</t>
+  </si>
+  <si>
+    <t>[761, 298]</t>
+  </si>
+  <si>
+    <t>DP0136</t>
   </si>
   <si>
     <t>[536, 24, 965, 734]</t>
   </si>
   <si>
-    <t>DP0133</t>
+    <t>DP0137</t>
   </si>
   <si>
     <t>[317, 928]</t>
   </si>
   <si>
-    <t>DP0134</t>
-  </si>
-  <si>
-    <t>[77, 889, 1010]</t>
-  </si>
-  <si>
-    <t>DP0135</t>
+    <t>DP0138</t>
+  </si>
+  <si>
+    <t>[65, 1056]</t>
+  </si>
+  <si>
+    <t>DP0139</t>
   </si>
   <si>
     <t>[535]</t>
   </si>
   <si>
-    <t>DP0136</t>
+    <t>DP0140</t>
+  </si>
+  <si>
+    <t>[276, 86, 74]</t>
+  </si>
+  <si>
+    <t>DP0141</t>
   </si>
   <si>
     <t>[480, 630, 824]</t>
   </si>
   <si>
-    <t>DP0137</t>
+    <t>DP0142</t>
   </si>
   <si>
     <t>[339]</t>
   </si>
   <si>
-    <t>DP0138</t>
+    <t>DP0143</t>
   </si>
   <si>
     <t>[626]</t>
   </si>
   <si>
-    <t>DP0139</t>
+    <t>DP0144</t>
   </si>
   <si>
     <t>[915]</t>
   </si>
   <si>
-    <t>DP0140</t>
-  </si>
-  <si>
-    <t>[585]</t>
-  </si>
-  <si>
-    <t>DP0141</t>
-  </si>
-  <si>
-    <t>[822, 1039]</t>
-  </si>
-  <si>
-    <t>DP0142</t>
-  </si>
-  <si>
-    <t>[371, 1074]</t>
+    <t>DP0145</t>
+  </si>
+  <si>
+    <t>[822, 888, 1045]</t>
+  </si>
+  <si>
+    <t>DP0146</t>
+  </si>
+  <si>
+    <t>[395, 1045]</t>
+  </si>
+  <si>
+    <t>DP0147</t>
+  </si>
+  <si>
+    <t>[12, 1010]</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,13 +2324,13 @@
         <v>43269.33541666667</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>43269.69097222222</v>
+        <v>43269.68819444445</v>
       </c>
       <c r="F24" t="n">
-        <v>169356</v>
+        <v>164469</v>
       </c>
       <c r="G24" t="n">
-        <v>2370.984</v>
+        <v>2302.566</v>
       </c>
       <c r="H24" t="n">
         <v>50</v>
@@ -2312,7 +2342,7 @@
         <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>2723.384</v>
+        <v>2654.966</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -2382,13 +2412,13 @@
         <v>43269.33402777778</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>43269.69097222222</v>
+        <v>43269.69444444445</v>
       </c>
       <c r="F26" t="n">
-        <v>179016</v>
+        <v>179101</v>
       </c>
       <c r="G26" t="n">
-        <v>2506.224</v>
+        <v>2507.414</v>
       </c>
       <c r="H26" t="n">
         <v>50</v>
@@ -2400,16 +2430,16 @@
         <v>300</v>
       </c>
       <c r="K26" t="n">
-        <v>2856.224</v>
+        <v>2857.414</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>2.448775</v>
+        <v>2.452435</v>
       </c>
       <c r="N26" t="n">
-        <v>9.932200000000002</v>
+        <v>10.0515</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2470,34 +2500,34 @@
         <v>43269.33333333334</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>43269.71111111111</v>
+        <v>43269.68055555555</v>
       </c>
       <c r="F28" t="n">
-        <v>180238</v>
+        <v>164010</v>
       </c>
       <c r="G28" t="n">
-        <v>2523.332</v>
+        <v>2296.14</v>
       </c>
       <c r="H28" t="n">
         <v>50</v>
       </c>
       <c r="I28" t="n">
-        <v>8.399999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="J28" t="n">
         <v>300</v>
       </c>
       <c r="K28" t="n">
-        <v>2881.732</v>
+        <v>2657.74</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.552584</v>
+        <v>2.319725</v>
       </c>
       <c r="N28" t="n">
-        <v>3.297</v>
+        <v>4.212</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2514,34 +2544,34 @@
         <v>43269.33333333334</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>43269.69027777778</v>
+        <v>43269.71111111111</v>
       </c>
       <c r="F29" t="n">
-        <v>174191</v>
+        <v>180238</v>
       </c>
       <c r="G29" t="n">
-        <v>2438.674</v>
+        <v>2523.332</v>
       </c>
       <c r="H29" t="n">
         <v>50</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="J29" t="n">
         <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>2788.674</v>
+        <v>2881.732</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>2.30498</v>
+        <v>1.552584</v>
       </c>
       <c r="N29" t="n">
-        <v>4.8458</v>
+        <v>3.297</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2558,13 +2588,13 @@
         <v>43269.33333333334</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>43269.70555555556</v>
+        <v>43269.69027777778</v>
       </c>
       <c r="F30" t="n">
-        <v>191657</v>
+        <v>174191</v>
       </c>
       <c r="G30" t="n">
-        <v>2683.198</v>
+        <v>2438.674</v>
       </c>
       <c r="H30" t="n">
         <v>50</v>
@@ -2576,16 +2606,16 @@
         <v>300</v>
       </c>
       <c r="K30" t="n">
-        <v>3033.198</v>
+        <v>2788.674</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>2.011728</v>
+        <v>2.30498</v>
       </c>
       <c r="N30" t="n">
-        <v>5.107600000000001</v>
+        <v>4.8458</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2602,13 +2632,13 @@
         <v>43269.33333333334</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>43269.70069444444</v>
+        <v>43269.70555555556</v>
       </c>
       <c r="F31" t="n">
-        <v>193127</v>
+        <v>191657</v>
       </c>
       <c r="G31" t="n">
-        <v>2703.778</v>
+        <v>2683.198</v>
       </c>
       <c r="H31" t="n">
         <v>50</v>
@@ -2620,16 +2650,16 @@
         <v>300</v>
       </c>
       <c r="K31" t="n">
-        <v>3053.778</v>
+        <v>3033.198</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.641388</v>
+        <v>2.011728</v>
       </c>
       <c r="N31" t="n">
-        <v>3.0608</v>
+        <v>5.107600000000001</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2646,13 +2676,13 @@
         <v>43269.33333333334</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>43269.72222222222</v>
+        <v>43269.71805555555</v>
       </c>
       <c r="F32" t="n">
-        <v>212470</v>
+        <v>206647</v>
       </c>
       <c r="G32" t="n">
-        <v>2974.58</v>
+        <v>2893.058</v>
       </c>
       <c r="H32" t="n">
         <v>50</v>
@@ -2664,16 +2694,16 @@
         <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>3324.58</v>
+        <v>3243.058</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>2.400905</v>
+        <v>2.313388</v>
       </c>
       <c r="N32" t="n">
-        <v>4.673399999999999</v>
+        <v>4.3059</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2690,13 +2720,13 @@
         <v>43269.33333333334</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>43269.6875</v>
+        <v>43269.72222222222</v>
       </c>
       <c r="F33" t="n">
-        <v>196627</v>
+        <v>212470</v>
       </c>
       <c r="G33" t="n">
-        <v>2752.778</v>
+        <v>2974.58</v>
       </c>
       <c r="H33" t="n">
         <v>50</v>
@@ -2708,16 +2738,16 @@
         <v>300</v>
       </c>
       <c r="K33" t="n">
-        <v>3102.778</v>
+        <v>3324.58</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>2.252995</v>
+        <v>2.400905</v>
       </c>
       <c r="N33" t="n">
-        <v>5.571599999999999</v>
+        <v>4.673399999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2731,19 +2761,19 @@
         <v>79</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43269.39027777778</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>43269.65138888889</v>
+        <v>43269.69097222222</v>
       </c>
       <c r="F34" t="n">
-        <v>83734</v>
+        <v>199443</v>
       </c>
       <c r="G34" t="n">
-        <v>1172.276</v>
+        <v>2792.202</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2752,16 +2782,16 @@
         <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>1472.276</v>
+        <v>3142.202</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>2.490585</v>
+        <v>2.470865</v>
       </c>
       <c r="N34" t="n">
-        <v>5.309799999999999</v>
+        <v>6.263699999999999</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2775,19 +2805,19 @@
         <v>81</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>43269.3875</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>43269.67013888889</v>
+        <v>43269.70694444444</v>
       </c>
       <c r="F35" t="n">
-        <v>84572</v>
+        <v>195330</v>
       </c>
       <c r="G35" t="n">
-        <v>1184.008</v>
+        <v>2734.62</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2796,16 +2826,16 @@
         <v>300</v>
       </c>
       <c r="K35" t="n">
-        <v>1484.008</v>
+        <v>3084.62</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>2.49116</v>
+        <v>2.453945</v>
       </c>
       <c r="N35" t="n">
-        <v>5.678199999999999</v>
+        <v>4.357900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2819,16 +2849,16 @@
         <v>83</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43269.37847222222</v>
+        <v>43269.39027777778</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>43269.67638888889</v>
+        <v>43269.65138888889</v>
       </c>
       <c r="F36" t="n">
-        <v>103789</v>
+        <v>83734</v>
       </c>
       <c r="G36" t="n">
-        <v>1453.046</v>
+        <v>1172.276</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2840,16 +2870,16 @@
         <v>300</v>
       </c>
       <c r="K36" t="n">
-        <v>1753.046</v>
+        <v>1472.276</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.963417</v>
+        <v>2.490585</v>
       </c>
       <c r="N36" t="n">
-        <v>3.587899999999999</v>
+        <v>5.309799999999999</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2863,16 +2893,16 @@
         <v>85</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43269.37083333333</v>
+        <v>43269.3875</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>43269.67638888889</v>
+        <v>43269.67013888889</v>
       </c>
       <c r="F37" t="n">
-        <v>113040</v>
+        <v>84572</v>
       </c>
       <c r="G37" t="n">
-        <v>1582.56</v>
+        <v>1184.008</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2884,16 +2914,16 @@
         <v>300</v>
       </c>
       <c r="K37" t="n">
-        <v>1882.56</v>
+        <v>1484.008</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.693995</v>
+        <v>2.49116</v>
       </c>
       <c r="N37" t="n">
-        <v>3.859800000000001</v>
+        <v>5.678199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2907,19 +2937,19 @@
         <v>87</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43269.36944444444</v>
+        <v>43269.37847222222</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>43269.71666666667</v>
+        <v>43269.67638888889</v>
       </c>
       <c r="F38" t="n">
-        <v>136648</v>
+        <v>103789</v>
       </c>
       <c r="G38" t="n">
-        <v>1913.072</v>
+        <v>1453.046</v>
       </c>
       <c r="H38" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2928,16 +2958,16 @@
         <v>300</v>
       </c>
       <c r="K38" t="n">
-        <v>2263.072</v>
+        <v>1753.046</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.46772</v>
+        <v>1.963417</v>
       </c>
       <c r="N38" t="n">
-        <v>7.3123</v>
+        <v>3.587899999999999</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2951,19 +2981,19 @@
         <v>89</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43269.36736111111</v>
+        <v>43269.37083333333</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>43269.71180555555</v>
+        <v>43269.67638888889</v>
       </c>
       <c r="F39" t="n">
-        <v>133112</v>
+        <v>113040</v>
       </c>
       <c r="G39" t="n">
-        <v>1863.568</v>
+        <v>1582.56</v>
       </c>
       <c r="H39" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2972,16 +3002,16 @@
         <v>300</v>
       </c>
       <c r="K39" t="n">
-        <v>2213.568</v>
+        <v>1882.56</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.550384</v>
+        <v>1.693995</v>
       </c>
       <c r="N39" t="n">
-        <v>2.9611</v>
+        <v>3.859800000000001</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2995,16 +3025,16 @@
         <v>91</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>43269.36666666667</v>
+        <v>43269.36944444444</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>43269.70347222222</v>
+        <v>43269.71666666667</v>
       </c>
       <c r="F40" t="n">
-        <v>151061</v>
+        <v>136648</v>
       </c>
       <c r="G40" t="n">
-        <v>2114.854</v>
+        <v>1913.072</v>
       </c>
       <c r="H40" t="n">
         <v>50</v>
@@ -3016,16 +3046,16 @@
         <v>300</v>
       </c>
       <c r="K40" t="n">
-        <v>2464.854</v>
+        <v>2263.072</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9069550000000001</v>
+        <v>2.46772</v>
       </c>
       <c r="N40" t="n">
-        <v>1.7042</v>
+        <v>7.3123</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3039,37 +3069,37 @@
         <v>93</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43269.36458333334</v>
+        <v>43269.36736111111</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>43269.70555555556</v>
+        <v>43269.71180555555</v>
       </c>
       <c r="F41" t="n">
-        <v>152143</v>
+        <v>133112</v>
       </c>
       <c r="G41" t="n">
-        <v>2130.002</v>
+        <v>1863.568</v>
       </c>
       <c r="H41" t="n">
         <v>50</v>
       </c>
       <c r="I41" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>300</v>
       </c>
       <c r="K41" t="n">
-        <v>2481.202</v>
+        <v>2213.568</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>2.46159</v>
+        <v>1.550384</v>
       </c>
       <c r="N41" t="n">
-        <v>12.298</v>
+        <v>2.9611</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3083,37 +3113,37 @@
         <v>95</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43269.36388888889</v>
+        <v>43269.36666666667</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>43269.68611111111</v>
+        <v>43269.70347222222</v>
       </c>
       <c r="F42" t="n">
-        <v>117792</v>
+        <v>151061</v>
       </c>
       <c r="G42" t="n">
-        <v>1649.088</v>
+        <v>2114.854</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I42" t="n">
-        <v>31.6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>300</v>
       </c>
       <c r="K42" t="n">
-        <v>1980.688</v>
+        <v>2464.854</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>1.179298</v>
+        <v>0.9069550000000001</v>
       </c>
       <c r="N42" t="n">
-        <v>2.513500000000001</v>
+        <v>1.7042</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3127,37 +3157,37 @@
         <v>97</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>43269.36319444444</v>
+        <v>43269.36458333334</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>43269.69861111111</v>
+        <v>43269.73055555556</v>
       </c>
       <c r="F43" t="n">
-        <v>135607</v>
+        <v>157675</v>
       </c>
       <c r="G43" t="n">
-        <v>1898.498</v>
+        <v>2207.45</v>
       </c>
       <c r="H43" t="n">
         <v>50</v>
       </c>
       <c r="I43" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="J43" t="n">
         <v>300</v>
       </c>
       <c r="K43" t="n">
-        <v>2254.898</v>
+        <v>2558.65</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>2.425</v>
+        <v>2.47293</v>
       </c>
       <c r="N43" t="n">
-        <v>3.8307</v>
+        <v>12.367</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3171,37 +3201,37 @@
         <v>99</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>43269.36180555556</v>
+        <v>43269.36388888889</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>43269.7125</v>
+        <v>43269.68611111111</v>
       </c>
       <c r="F44" t="n">
-        <v>165145</v>
+        <v>117792</v>
       </c>
       <c r="G44" t="n">
-        <v>2312.03</v>
+        <v>1649.088</v>
       </c>
       <c r="H44" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="J44" t="n">
         <v>300</v>
       </c>
       <c r="K44" t="n">
-        <v>2662.03</v>
+        <v>1980.688</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.42499</v>
+        <v>1.179298</v>
       </c>
       <c r="N44" t="n">
-        <v>4.1742</v>
+        <v>2.513500000000001</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3209,43 +3239,43 @@
         <v>100</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>43269.36111111111</v>
+        <v>43269.36319444444</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>43269.69791666666</v>
+        <v>43269.69861111111</v>
       </c>
       <c r="F45" t="n">
-        <v>134211</v>
+        <v>135607</v>
       </c>
       <c r="G45" t="n">
-        <v>1610.532</v>
+        <v>1898.498</v>
       </c>
       <c r="H45" t="n">
         <v>50</v>
       </c>
       <c r="I45" t="n">
-        <v>32.40000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="J45" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" t="n">
-        <v>1892.932</v>
+        <v>2254.898</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.49937</v>
+        <v>2.425</v>
       </c>
       <c r="N45" t="n">
-        <v>2.8105</v>
+        <v>3.8307</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3253,43 +3283,43 @@
         <v>102</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>43269.35972222222</v>
+        <v>43269.36180555556</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>43269.72638888889</v>
+        <v>43269.7125</v>
       </c>
       <c r="F46" t="n">
-        <v>144272</v>
+        <v>165145</v>
       </c>
       <c r="G46" t="n">
-        <v>1731.264</v>
+        <v>2312.03</v>
       </c>
       <c r="H46" t="n">
         <v>50</v>
       </c>
       <c r="I46" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
-        <v>2012.464</v>
+        <v>2662.03</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1.21691</v>
+        <v>2.42499</v>
       </c>
       <c r="N46" t="n">
-        <v>2.5493</v>
+        <v>4.1742</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3297,43 +3327,43 @@
         <v>104</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>43269.35833333333</v>
+        <v>43269.36111111111</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>43269.70625</v>
+        <v>43269.69791666666</v>
       </c>
       <c r="F47" t="n">
-        <v>160020</v>
+        <v>134211</v>
       </c>
       <c r="G47" t="n">
-        <v>2240.28</v>
+        <v>1610.532</v>
       </c>
       <c r="H47" t="n">
         <v>50</v>
       </c>
       <c r="I47" t="n">
-        <v>1.2</v>
+        <v>32.40000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K47" t="n">
-        <v>2591.48</v>
+        <v>1892.932</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>2.053478</v>
+        <v>0.49937</v>
       </c>
       <c r="N47" t="n">
-        <v>4.369899999999999</v>
+        <v>2.8105</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3341,43 +3371,43 @@
         <v>106</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>43269.34930555556</v>
+        <v>43269.35972222222</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>43269.70347222222</v>
+        <v>43269.72638888889</v>
       </c>
       <c r="F48" t="n">
-        <v>172859</v>
+        <v>144272</v>
       </c>
       <c r="G48" t="n">
-        <v>2420.026</v>
+        <v>1731.264</v>
       </c>
       <c r="H48" t="n">
         <v>50</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J48" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>2770.026</v>
+        <v>2012.464</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>2.21017</v>
+        <v>1.21691</v>
       </c>
       <c r="N48" t="n">
-        <v>5.1904</v>
+        <v>2.5493</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3391,37 +3421,37 @@
         <v>109</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>43269.34861111111</v>
+        <v>43269.35833333333</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>43269.69444444445</v>
+        <v>43269.70625</v>
       </c>
       <c r="F49" t="n">
-        <v>184808</v>
+        <v>160020</v>
       </c>
       <c r="G49" t="n">
-        <v>2587.312</v>
+        <v>2240.28</v>
       </c>
       <c r="H49" t="n">
         <v>50</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J49" t="n">
         <v>300</v>
       </c>
       <c r="K49" t="n">
-        <v>2937.312</v>
+        <v>2591.48</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>2.2081</v>
+        <v>2.053478</v>
       </c>
       <c r="N49" t="n">
-        <v>4.1824</v>
+        <v>4.369899999999999</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3435,37 +3465,37 @@
         <v>111</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>43269.34722222222</v>
+        <v>43269.35833333333</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>43269.73888888889</v>
+        <v>43269.69236111111</v>
       </c>
       <c r="F50" t="n">
-        <v>167577</v>
+        <v>171562</v>
       </c>
       <c r="G50" t="n">
-        <v>2346.078</v>
+        <v>2401.868</v>
       </c>
       <c r="H50" t="n">
         <v>50</v>
       </c>
       <c r="I50" t="n">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>300</v>
       </c>
       <c r="K50" t="n">
-        <v>2731.678</v>
+        <v>2751.868</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1.782975</v>
+        <v>2.479164</v>
       </c>
       <c r="N50" t="n">
-        <v>4.9863</v>
+        <v>8.072900000000001</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3479,37 +3509,37 @@
         <v>113</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>43269.34444444445</v>
+        <v>43269.35763888889</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>43269.67777777778</v>
+        <v>43269.675</v>
       </c>
       <c r="F51" t="n">
-        <v>177775</v>
+        <v>152639</v>
       </c>
       <c r="G51" t="n">
-        <v>2488.85</v>
+        <v>2136.946</v>
       </c>
       <c r="H51" t="n">
         <v>50</v>
       </c>
       <c r="I51" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>300</v>
       </c>
       <c r="K51" t="n">
-        <v>2859.65</v>
+        <v>2486.946</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>1.00874</v>
+        <v>2.446935</v>
       </c>
       <c r="N51" t="n">
-        <v>1.8901</v>
+        <v>12.609</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3523,37 +3553,37 @@
         <v>115</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43269.35694444444</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>43269.70763888889</v>
+        <v>43269.70138888889</v>
       </c>
       <c r="F52" t="n">
-        <v>196647</v>
+        <v>158810</v>
       </c>
       <c r="G52" t="n">
-        <v>2753.058</v>
+        <v>2223.34</v>
       </c>
       <c r="H52" t="n">
         <v>50</v>
       </c>
       <c r="I52" t="n">
-        <v>35.2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>300</v>
       </c>
       <c r="K52" t="n">
-        <v>3138.258</v>
+        <v>2573.34</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>1.972947</v>
+        <v>2.20145</v>
       </c>
       <c r="N52" t="n">
-        <v>3.5321</v>
+        <v>3.7064</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3567,19 +3597,19 @@
         <v>117</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>43269.3875</v>
+        <v>43269.34930555556</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>43269.64652777778</v>
+        <v>43269.7</v>
       </c>
       <c r="F53" t="n">
-        <v>81434</v>
+        <v>167072</v>
       </c>
       <c r="G53" t="n">
-        <v>1140.076</v>
+        <v>2339.008</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3588,16 +3618,16 @@
         <v>300</v>
       </c>
       <c r="K53" t="n">
-        <v>1440.076</v>
+        <v>2689.008</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>2.394237</v>
+        <v>2.39701</v>
       </c>
       <c r="N53" t="n">
-        <v>4.8229</v>
+        <v>5.871600000000001</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3611,19 +3641,19 @@
         <v>119</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>43269.36388888889</v>
+        <v>43269.34861111111</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>43269.65138888889</v>
+        <v>43269.69444444445</v>
       </c>
       <c r="F54" t="n">
-        <v>90034</v>
+        <v>184808</v>
       </c>
       <c r="G54" t="n">
-        <v>1260.476</v>
+        <v>2587.312</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3632,16 +3662,16 @@
         <v>300</v>
       </c>
       <c r="K54" t="n">
-        <v>1560.476</v>
+        <v>2937.312</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>2.219555000000001</v>
+        <v>2.2081</v>
       </c>
       <c r="N54" t="n">
-        <v>4.1451</v>
+        <v>4.1824</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3655,37 +3685,37 @@
         <v>121</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>43269.36041666667</v>
+        <v>43269.34722222222</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>43269.66944444444</v>
+        <v>43269.73888888889</v>
       </c>
       <c r="F55" t="n">
-        <v>97694</v>
+        <v>167577</v>
       </c>
       <c r="G55" t="n">
-        <v>1367.716</v>
+        <v>2346.078</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I55" t="n">
-        <v>8.799999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="J55" t="n">
         <v>300</v>
       </c>
       <c r="K55" t="n">
-        <v>1676.516</v>
+        <v>2731.678</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>2.38489</v>
+        <v>1.782975</v>
       </c>
       <c r="N55" t="n">
-        <v>7.372200000000001</v>
+        <v>4.9863</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3699,37 +3729,37 @@
         <v>123</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>43269.35972222222</v>
+        <v>43269.34444444445</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>43269.68263888889</v>
+        <v>43269.67777777778</v>
       </c>
       <c r="F56" t="n">
-        <v>114643</v>
+        <v>177775</v>
       </c>
       <c r="G56" t="n">
-        <v>1605.002</v>
+        <v>2488.85</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I56" t="n">
-        <v>8.799999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="J56" t="n">
         <v>300</v>
       </c>
       <c r="K56" t="n">
-        <v>1913.802</v>
+        <v>2859.65</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>2.064152</v>
+        <v>1.00874</v>
       </c>
       <c r="N56" t="n">
-        <v>3.401</v>
+        <v>1.8901</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3743,37 +3773,37 @@
         <v>125</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>43269.40069444444</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>43269.68333333333</v>
+        <v>43269.70694444444</v>
       </c>
       <c r="F57" t="n">
-        <v>109654</v>
+        <v>195430</v>
       </c>
       <c r="G57" t="n">
-        <v>1535.156</v>
+        <v>2736.02</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>35.2</v>
       </c>
       <c r="J57" t="n">
         <v>300</v>
       </c>
       <c r="K57" t="n">
-        <v>1835.156</v>
+        <v>3121.22</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>2.392525</v>
+        <v>0.7030569999999999</v>
       </c>
       <c r="N57" t="n">
-        <v>5.0935</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3787,16 +3817,16 @@
         <v>127</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>43269.37986111111</v>
+        <v>43269.3875</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>43269.68402777778</v>
+        <v>43269.64652777778</v>
       </c>
       <c r="F58" t="n">
-        <v>111391</v>
+        <v>81434</v>
       </c>
       <c r="G58" t="n">
-        <v>1559.474</v>
+        <v>1140.076</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3808,16 +3838,16 @@
         <v>300</v>
       </c>
       <c r="K58" t="n">
-        <v>1859.474</v>
+        <v>1440.076</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1.67303</v>
+        <v>2.394237</v>
       </c>
       <c r="N58" t="n">
-        <v>8.987</v>
+        <v>4.8229</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3831,19 +3861,19 @@
         <v>129</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>43269.35902777778</v>
+        <v>43269.36388888889</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>43269.7</v>
+        <v>43269.65138888889</v>
       </c>
       <c r="F59" t="n">
-        <v>129722</v>
+        <v>90034</v>
       </c>
       <c r="G59" t="n">
-        <v>1816.108</v>
+        <v>1260.476</v>
       </c>
       <c r="H59" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3852,16 +3882,16 @@
         <v>300</v>
       </c>
       <c r="K59" t="n">
-        <v>2166.108</v>
+        <v>1560.476</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>2.370321</v>
+        <v>2.219555000000001</v>
       </c>
       <c r="N59" t="n">
-        <v>5.319500000000001</v>
+        <v>4.1451</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3875,37 +3905,37 @@
         <v>131</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>43269.37847222222</v>
+        <v>43269.36041666667</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>43269.68888888889</v>
+        <v>43269.66944444444</v>
       </c>
       <c r="F60" t="n">
-        <v>116784</v>
+        <v>97694</v>
       </c>
       <c r="G60" t="n">
-        <v>1634.976</v>
+        <v>1367.716</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="J60" t="n">
         <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>1934.976</v>
+        <v>1676.516</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>2.06063</v>
+        <v>2.38489</v>
       </c>
       <c r="N60" t="n">
-        <v>5.2625</v>
+        <v>7.372200000000001</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3919,37 +3949,37 @@
         <v>133</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43269.35555555556</v>
+        <v>43269.35972222222</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>43269.71180555555</v>
+        <v>43269.68263888889</v>
       </c>
       <c r="F61" t="n">
-        <v>133547</v>
+        <v>114643</v>
       </c>
       <c r="G61" t="n">
-        <v>1869.658</v>
+        <v>1605.002</v>
       </c>
       <c r="H61" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>6.8</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="J61" t="n">
         <v>300</v>
       </c>
       <c r="K61" t="n">
-        <v>2226.458</v>
+        <v>1913.802</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>2.027064</v>
+        <v>2.064152</v>
       </c>
       <c r="N61" t="n">
-        <v>4.2631</v>
+        <v>3.401</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3963,19 +3993,19 @@
         <v>135</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43269.37430555555</v>
+        <v>43269.40069444444</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>43269.69722222222</v>
+        <v>43269.68333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>133621</v>
+        <v>109654</v>
       </c>
       <c r="G62" t="n">
-        <v>1870.694</v>
+        <v>1535.156</v>
       </c>
       <c r="H62" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3984,16 +4014,16 @@
         <v>300</v>
       </c>
       <c r="K62" t="n">
-        <v>2220.694</v>
+        <v>1835.156</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>2.461702</v>
+        <v>2.392525</v>
       </c>
       <c r="N62" t="n">
-        <v>5.903</v>
+        <v>5.0935</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4007,16 +4037,16 @@
         <v>137</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>43269.39444444444</v>
+        <v>43269.37986111111</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>43269.67708333334</v>
+        <v>43269.68402777778</v>
       </c>
       <c r="F63" t="n">
-        <v>108752</v>
+        <v>111391</v>
       </c>
       <c r="G63" t="n">
-        <v>1522.528</v>
+        <v>1559.474</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4028,16 +4058,16 @@
         <v>300</v>
       </c>
       <c r="K63" t="n">
-        <v>1822.528</v>
+        <v>1859.474</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.553155</v>
+        <v>1.67303</v>
       </c>
       <c r="N63" t="n">
-        <v>2.9034</v>
+        <v>8.987</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4045,22 +4075,22 @@
         <v>138</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>43269.37361111111</v>
+        <v>43269.35902777778</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>43269.71805555555</v>
+        <v>43269.7</v>
       </c>
       <c r="F64" t="n">
-        <v>133811</v>
+        <v>129722</v>
       </c>
       <c r="G64" t="n">
-        <v>1605.732</v>
+        <v>1816.108</v>
       </c>
       <c r="H64" t="n">
         <v>50</v>
@@ -4069,19 +4099,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K64" t="n">
-        <v>1855.732</v>
+        <v>2166.108</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>1.821072</v>
+        <v>2.370321</v>
       </c>
       <c r="N64" t="n">
-        <v>3.5386</v>
+        <v>5.319500000000001</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4095,37 +4125,37 @@
         <v>141</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>43269.35138888889</v>
+        <v>43269.37847222222</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>43269.69097222222</v>
+        <v>43269.68888888889</v>
       </c>
       <c r="F65" t="n">
-        <v>134552</v>
+        <v>116784</v>
       </c>
       <c r="G65" t="n">
-        <v>1883.728</v>
+        <v>1634.976</v>
       </c>
       <c r="H65" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>8.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>300</v>
       </c>
       <c r="K65" t="n">
-        <v>2242.128</v>
+        <v>1934.976</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>2.49181</v>
+        <v>2.06063</v>
       </c>
       <c r="N65" t="n">
-        <v>4.0715</v>
+        <v>5.2625</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4139,37 +4169,37 @@
         <v>143</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>43269.34930555556</v>
+        <v>43269.35555555556</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>43269.71111111111</v>
+        <v>43269.71180555555</v>
       </c>
       <c r="F66" t="n">
-        <v>154695</v>
+        <v>133547</v>
       </c>
       <c r="G66" t="n">
-        <v>2165.73</v>
+        <v>1869.658</v>
       </c>
       <c r="H66" t="n">
         <v>50</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J66" t="n">
         <v>300</v>
       </c>
       <c r="K66" t="n">
-        <v>2515.73</v>
+        <v>2226.458</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>2.478339000000001</v>
+        <v>2.027064</v>
       </c>
       <c r="N66" t="n">
-        <v>4.5044</v>
+        <v>4.2631</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4183,16 +4213,16 @@
         <v>145</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>43269.37013888889</v>
+        <v>43269.37430555555</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>43269.71597222222</v>
+        <v>43269.69722222222</v>
       </c>
       <c r="F67" t="n">
-        <v>135121</v>
+        <v>133621</v>
       </c>
       <c r="G67" t="n">
-        <v>1891.694</v>
+        <v>1870.694</v>
       </c>
       <c r="H67" t="n">
         <v>50</v>
@@ -4204,16 +4234,16 @@
         <v>300</v>
       </c>
       <c r="K67" t="n">
-        <v>2241.694</v>
+        <v>2220.694</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>2.272750000000001</v>
+        <v>2.461702</v>
       </c>
       <c r="N67" t="n">
-        <v>3.9788</v>
+        <v>5.903</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4227,16 +4257,16 @@
         <v>147</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>43269.39027777778</v>
+        <v>43269.39444444444</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>43269.65416666667</v>
+        <v>43269.67708333334</v>
       </c>
       <c r="F68" t="n">
-        <v>113358</v>
+        <v>108752</v>
       </c>
       <c r="G68" t="n">
-        <v>1587.012</v>
+        <v>1522.528</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4248,16 +4278,16 @@
         <v>300</v>
       </c>
       <c r="K68" t="n">
-        <v>1887.012</v>
+        <v>1822.528</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>2.488555</v>
+        <v>1.553155</v>
       </c>
       <c r="N68" t="n">
-        <v>7.0943</v>
+        <v>2.9034</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4265,22 +4295,22 @@
         <v>148</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>149</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>43269.36944444444</v>
+        <v>43269.37361111111</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>43269.69722222222</v>
+        <v>43269.71805555555</v>
       </c>
       <c r="F69" t="n">
-        <v>140504</v>
+        <v>133811</v>
       </c>
       <c r="G69" t="n">
-        <v>1967.056</v>
+        <v>1605.732</v>
       </c>
       <c r="H69" t="n">
         <v>50</v>
@@ -4289,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K69" t="n">
-        <v>2317.056</v>
+        <v>1855.732</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>0.973809</v>
+        <v>1.821072</v>
       </c>
       <c r="N69" t="n">
-        <v>2.5587</v>
+        <v>3.5386</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4315,37 +4345,37 @@
         <v>151</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>43269.36875</v>
+        <v>43269.35138888889</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>43269.64305555556</v>
+        <v>43269.69097222222</v>
       </c>
       <c r="F70" t="n">
-        <v>106741</v>
+        <v>134552</v>
       </c>
       <c r="G70" t="n">
-        <v>1494.374</v>
+        <v>1883.728</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I70" t="n">
-        <v>33.59999999999999</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="J70" t="n">
         <v>300</v>
       </c>
       <c r="K70" t="n">
-        <v>1827.974</v>
+        <v>2242.128</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>2.4621</v>
+        <v>2.49181</v>
       </c>
       <c r="N70" t="n">
-        <v>4.298900000000001</v>
+        <v>4.0715</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4359,37 +4389,37 @@
         <v>153</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>43269.38888888889</v>
+        <v>43269.34930555556</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>43269.67708333334</v>
+        <v>43269.71111111111</v>
       </c>
       <c r="F71" t="n">
-        <v>118434</v>
+        <v>154695</v>
       </c>
       <c r="G71" t="n">
-        <v>1658.076</v>
+        <v>2165.73</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I71" t="n">
-        <v>35.2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>300</v>
       </c>
       <c r="K71" t="n">
-        <v>1993.276</v>
+        <v>2515.73</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>2.25135</v>
+        <v>2.478339000000001</v>
       </c>
       <c r="N71" t="n">
-        <v>3.957100000000001</v>
+        <v>4.5044</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4403,16 +4433,16 @@
         <v>155</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>43269.36805555555</v>
+        <v>43269.37013888889</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>43269.6875</v>
+        <v>43269.71597222222</v>
       </c>
       <c r="F72" t="n">
-        <v>127813</v>
+        <v>135121</v>
       </c>
       <c r="G72" t="n">
-        <v>1789.382</v>
+        <v>1891.694</v>
       </c>
       <c r="H72" t="n">
         <v>50</v>
@@ -4424,16 +4454,16 @@
         <v>300</v>
       </c>
       <c r="K72" t="n">
-        <v>2139.382</v>
+        <v>2241.694</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>2.48414</v>
+        <v>2.272750000000001</v>
       </c>
       <c r="N72" t="n">
-        <v>5.335</v>
+        <v>3.9788</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4447,37 +4477,37 @@
         <v>157</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>43269.38819444444</v>
+        <v>43269.39027777778</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>43269.69652777778</v>
+        <v>43269.65416666667</v>
       </c>
       <c r="F73" t="n">
-        <v>132560</v>
+        <v>113358</v>
       </c>
       <c r="G73" t="n">
-        <v>1855.84</v>
+        <v>1587.012</v>
       </c>
       <c r="H73" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>300</v>
       </c>
       <c r="K73" t="n">
-        <v>2221.44</v>
+        <v>1887.012</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>2.46387</v>
+        <v>2.488555</v>
       </c>
       <c r="N73" t="n">
-        <v>4.1348</v>
+        <v>7.0943</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4491,19 +4521,19 @@
         <v>159</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>43269.3875</v>
+        <v>43269.36944444444</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>43269.55277777778</v>
+        <v>43269.69722222222</v>
       </c>
       <c r="F74" t="n">
-        <v>96078</v>
+        <v>140504</v>
       </c>
       <c r="G74" t="n">
-        <v>1345.092</v>
+        <v>1967.056</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -4512,16 +4542,16 @@
         <v>300</v>
       </c>
       <c r="K74" t="n">
-        <v>1645.092</v>
+        <v>2317.056</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>2.462816</v>
+        <v>0.973809</v>
       </c>
       <c r="N74" t="n">
-        <v>4.5112</v>
+        <v>2.5587</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4535,37 +4565,37 @@
         <v>161</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>43269.34583333333</v>
+        <v>43269.36875</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>43269.61597222222</v>
+        <v>43269.64305555556</v>
       </c>
       <c r="F75" t="n">
-        <v>109603</v>
+        <v>106741</v>
       </c>
       <c r="G75" t="n">
-        <v>1534.442</v>
+        <v>1494.374</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>17.2</v>
+        <v>33.59999999999999</v>
       </c>
       <c r="J75" t="n">
         <v>300</v>
       </c>
       <c r="K75" t="n">
-        <v>1851.642</v>
+        <v>1827.974</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>2.34697</v>
+        <v>2.4621</v>
       </c>
       <c r="N75" t="n">
-        <v>6.531600000000001</v>
+        <v>4.298900000000001</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4579,37 +4609,37 @@
         <v>163</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>43269.36597222222</v>
+        <v>43269.38888888889</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>43269.70277777778</v>
+        <v>43269.67708333334</v>
       </c>
       <c r="F76" t="n">
-        <v>134895</v>
+        <v>118434</v>
       </c>
       <c r="G76" t="n">
-        <v>1888.53</v>
+        <v>1658.076</v>
       </c>
       <c r="H76" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>31.6</v>
+        <v>35.2</v>
       </c>
       <c r="J76" t="n">
         <v>300</v>
       </c>
       <c r="K76" t="n">
-        <v>2270.13</v>
+        <v>1993.276</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>2.21539</v>
+        <v>2.25135</v>
       </c>
       <c r="N76" t="n">
-        <v>3.807300000000001</v>
+        <v>3.957100000000001</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4623,16 +4653,16 @@
         <v>165</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>43269.38472222222</v>
+        <v>43269.36805555555</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>43269.71388888889</v>
+        <v>43269.6875</v>
       </c>
       <c r="F77" t="n">
-        <v>139576</v>
+        <v>127813</v>
       </c>
       <c r="G77" t="n">
-        <v>1954.064</v>
+        <v>1789.382</v>
       </c>
       <c r="H77" t="n">
         <v>50</v>
@@ -4644,16 +4674,16 @@
         <v>300</v>
       </c>
       <c r="K77" t="n">
-        <v>2304.064</v>
+        <v>2139.382</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>2.37668</v>
+        <v>2.48414</v>
       </c>
       <c r="N77" t="n">
-        <v>6.205900000000001</v>
+        <v>5.335</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4667,37 +4697,37 @@
         <v>167</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>43269.34097222222</v>
+        <v>43269.38819444444</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>43269.62847222222</v>
+        <v>43269.69652777778</v>
       </c>
       <c r="F78" t="n">
-        <v>112274</v>
+        <v>132560</v>
       </c>
       <c r="G78" t="n">
-        <v>1571.836</v>
+        <v>1855.84</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I78" t="n">
-        <v>62.8</v>
+        <v>15.6</v>
       </c>
       <c r="J78" t="n">
         <v>300</v>
       </c>
       <c r="K78" t="n">
-        <v>1934.636</v>
+        <v>2221.44</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>2.47098</v>
+        <v>2.46387</v>
       </c>
       <c r="N78" t="n">
-        <v>6.893800000000001</v>
+        <v>4.1348</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4711,37 +4741,37 @@
         <v>169</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>43269.35625</v>
+        <v>43269.3875</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>43269.65347222222</v>
+        <v>43269.55277777778</v>
       </c>
       <c r="F79" t="n">
-        <v>139094</v>
+        <v>96078</v>
       </c>
       <c r="G79" t="n">
-        <v>1947.316</v>
+        <v>1345.092</v>
       </c>
       <c r="H79" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>300</v>
       </c>
       <c r="K79" t="n">
-        <v>2328.116</v>
+        <v>1645.092</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>2.48947</v>
+        <v>2.462816</v>
       </c>
       <c r="N79" t="n">
-        <v>4.7809</v>
+        <v>4.5112</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4755,37 +4785,37 @@
         <v>171</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>43269.37291666667</v>
+        <v>43269.34583333333</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>43269.72777777778</v>
+        <v>43269.61597222222</v>
       </c>
       <c r="F80" t="n">
-        <v>156195</v>
+        <v>109603</v>
       </c>
       <c r="G80" t="n">
-        <v>2186.73</v>
+        <v>1534.442</v>
       </c>
       <c r="H80" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>19.6</v>
+        <v>17.2</v>
       </c>
       <c r="J80" t="n">
         <v>300</v>
       </c>
       <c r="K80" t="n">
-        <v>2556.33</v>
+        <v>1851.642</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>2.245505</v>
+        <v>2.34697</v>
       </c>
       <c r="N80" t="n">
-        <v>4.757099999999999</v>
+        <v>6.531600000000001</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4799,37 +4829,37 @@
         <v>173</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43269.36597222222</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43269.70277777778</v>
       </c>
       <c r="F81" t="n">
-        <v>179311</v>
+        <v>134895</v>
       </c>
       <c r="G81" t="n">
-        <v>2510.354</v>
+        <v>1888.53</v>
       </c>
       <c r="H81" t="n">
         <v>50</v>
       </c>
       <c r="I81" t="n">
-        <v>8</v>
+        <v>31.6</v>
       </c>
       <c r="J81" t="n">
         <v>300</v>
       </c>
       <c r="K81" t="n">
-        <v>2868.354</v>
+        <v>2270.13</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>2.35332</v>
+        <v>2.21539</v>
       </c>
       <c r="N81" t="n">
-        <v>4.0793</v>
+        <v>3.807300000000001</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4843,37 +4873,37 @@
         <v>175</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>43269.36527777778</v>
+        <v>43269.38472222222</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>43269.70347222222</v>
+        <v>43269.71388888889</v>
       </c>
       <c r="F82" t="n">
-        <v>189938</v>
+        <v>139576</v>
       </c>
       <c r="G82" t="n">
-        <v>2659.132</v>
+        <v>1954.064</v>
       </c>
       <c r="H82" t="n">
         <v>50</v>
       </c>
       <c r="I82" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>300</v>
       </c>
       <c r="K82" t="n">
-        <v>3014.732</v>
+        <v>2304.064</v>
       </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>1.84531</v>
+        <v>2.37668</v>
       </c>
       <c r="N82" t="n">
-        <v>4.4905</v>
+        <v>6.205900000000001</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4887,37 +4917,37 @@
         <v>177</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>43269.36527777778</v>
+        <v>43269.34097222222</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>43269.70833333334</v>
+        <v>43269.62847222222</v>
       </c>
       <c r="F83" t="n">
-        <v>195030</v>
+        <v>112274</v>
       </c>
       <c r="G83" t="n">
-        <v>2730.42</v>
+        <v>1571.836</v>
       </c>
       <c r="H83" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="J83" t="n">
         <v>300</v>
       </c>
       <c r="K83" t="n">
-        <v>3080.42</v>
+        <v>1934.636</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>2.03839</v>
+        <v>2.47098</v>
       </c>
       <c r="N83" t="n">
-        <v>4.7206</v>
+        <v>6.893800000000001</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4931,37 +4961,37 @@
         <v>179</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>43269.36319444444</v>
+        <v>43269.35625</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>43269.70277777778</v>
+        <v>43269.65347222222</v>
       </c>
       <c r="F84" t="n">
-        <v>186758</v>
+        <v>139094</v>
       </c>
       <c r="G84" t="n">
-        <v>2614.612</v>
+        <v>1947.316</v>
       </c>
       <c r="H84" t="n">
         <v>50</v>
       </c>
       <c r="I84" t="n">
-        <v>8.399999999999999</v>
+        <v>30.8</v>
       </c>
       <c r="J84" t="n">
         <v>300</v>
       </c>
       <c r="K84" t="n">
-        <v>2973.012</v>
+        <v>2328.116</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>1.72856</v>
+        <v>2.48947</v>
       </c>
       <c r="N84" t="n">
-        <v>3.0018</v>
+        <v>4.7809</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4975,37 +5005,37 @@
         <v>181</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43269.37291666667</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>43269.68541666667</v>
+        <v>43269.72777777778</v>
       </c>
       <c r="F85" t="n">
-        <v>170465</v>
+        <v>156195</v>
       </c>
       <c r="G85" t="n">
-        <v>2386.51</v>
+        <v>2186.73</v>
       </c>
       <c r="H85" t="n">
         <v>50</v>
       </c>
       <c r="I85" t="n">
-        <v>35.6</v>
+        <v>19.6</v>
       </c>
       <c r="J85" t="n">
         <v>300</v>
       </c>
       <c r="K85" t="n">
-        <v>2772.11</v>
+        <v>2556.33</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>2.423575</v>
+        <v>2.245505</v>
       </c>
       <c r="N85" t="n">
-        <v>5.167400000000001</v>
+        <v>4.757099999999999</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5019,37 +5049,37 @@
         <v>183</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>43269.36041666667</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>43269.75277777778</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="F86" t="n">
-        <v>185994</v>
+        <v>179311</v>
       </c>
       <c r="G86" t="n">
-        <v>2603.916</v>
+        <v>2510.354</v>
       </c>
       <c r="H86" t="n">
         <v>50</v>
       </c>
       <c r="I86" t="n">
-        <v>51.2</v>
+        <v>8</v>
       </c>
       <c r="J86" t="n">
         <v>300</v>
       </c>
       <c r="K86" t="n">
-        <v>3005.116</v>
+        <v>2868.354</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
       <c r="M86" t="n">
-        <v>1.02761</v>
+        <v>2.35332</v>
       </c>
       <c r="N86" t="n">
-        <v>2.3196</v>
+        <v>4.0793</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5063,37 +5093,37 @@
         <v>185</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>43269.33333333334</v>
+        <v>43269.36527777778</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>43269.71111111111</v>
+        <v>43269.70347222222</v>
       </c>
       <c r="F87" t="n">
-        <v>190541</v>
+        <v>189938</v>
       </c>
       <c r="G87" t="n">
-        <v>2667.574</v>
+        <v>2659.132</v>
       </c>
       <c r="H87" t="n">
         <v>50</v>
       </c>
       <c r="I87" t="n">
-        <v>41.2</v>
+        <v>5.6</v>
       </c>
       <c r="J87" t="n">
         <v>300</v>
       </c>
       <c r="K87" t="n">
-        <v>3058.774</v>
+        <v>3014.732</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>1.69627</v>
+        <v>1.84531</v>
       </c>
       <c r="N87" t="n">
-        <v>3.9354</v>
+        <v>4.4905</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5107,37 +5137,37 @@
         <v>187</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>43269.36666666667</v>
+        <v>43269.36527777778</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>43269.66527777778</v>
+        <v>43269.71736111111</v>
       </c>
       <c r="F88" t="n">
-        <v>86329</v>
+        <v>168287</v>
       </c>
       <c r="G88" t="n">
-        <v>1208.606</v>
+        <v>2356.018</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I88" t="n">
-        <v>32.8</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>300</v>
       </c>
       <c r="K88" t="n">
-        <v>1541.406</v>
+        <v>2706.018</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>2.052568</v>
+        <v>1.44229</v>
       </c>
       <c r="N88" t="n">
-        <v>3.804200000000001</v>
+        <v>5.510400000000001</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5145,43 +5175,43 @@
         <v>188</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
         <v>189</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>43269.36666666667</v>
+        <v>43269.36319444444</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>43269.65069444444</v>
+        <v>43269.70763888889</v>
       </c>
       <c r="F89" t="n">
-        <v>73398</v>
+        <v>189410</v>
       </c>
       <c r="G89" t="n">
-        <v>880.7760000000001</v>
+        <v>2651.74</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I89" t="n">
-        <v>30.4</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K89" t="n">
-        <v>1111.176</v>
+        <v>3011.74</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>1.570451</v>
+        <v>1.58228</v>
       </c>
       <c r="N89" t="n">
-        <v>3.0322</v>
+        <v>3.3602</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5189,43 +5219,43 @@
         <v>190</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
         <v>191</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>43269.44513888889</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>43269.67152777778</v>
+        <v>43269.68541666667</v>
       </c>
       <c r="F90" t="n">
-        <v>93396</v>
+        <v>170465</v>
       </c>
       <c r="G90" t="n">
-        <v>1120.752</v>
+        <v>2386.51</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="J90" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K90" t="n">
-        <v>1320.752</v>
+        <v>2772.11</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>0.899976</v>
+        <v>2.423575</v>
       </c>
       <c r="N90" t="n">
-        <v>2.7123</v>
+        <v>5.167400000000001</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5239,37 +5269,37 @@
         <v>193</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>43269.36111111111</v>
+        <v>43269.36041666667</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43269.73055555556</v>
       </c>
       <c r="F91" t="n">
-        <v>101819</v>
+        <v>188376</v>
       </c>
       <c r="G91" t="n">
-        <v>1425.466</v>
+        <v>2637.264</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I91" t="n">
-        <v>16.4</v>
+        <v>50</v>
       </c>
       <c r="J91" t="n">
         <v>300</v>
       </c>
       <c r="K91" t="n">
-        <v>1741.866</v>
+        <v>3037.264</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>2.30313</v>
+        <v>1.35937</v>
       </c>
       <c r="N91" t="n">
-        <v>4.6962</v>
+        <v>6.6229</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5283,37 +5313,37 @@
         <v>195</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>43269.44236111111</v>
+        <v>43269.33333333334</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>43269.54583333333</v>
+        <v>43269.69583333333</v>
       </c>
       <c r="F92" t="n">
-        <v>47056</v>
+        <v>171026</v>
       </c>
       <c r="G92" t="n">
-        <v>658.784</v>
+        <v>2394.364</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="J92" t="n">
         <v>300</v>
       </c>
       <c r="K92" t="n">
-        <v>958.784</v>
+        <v>2785.564</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>2.477464</v>
+        <v>2.26221</v>
       </c>
       <c r="N92" t="n">
-        <v>13.9228</v>
+        <v>4.5427</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5327,37 +5357,37 @@
         <v>197</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>43269.44236111111</v>
+        <v>43269.36666666667</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>43269.60694444444</v>
+        <v>43269.66527777778</v>
       </c>
       <c r="F93" t="n">
-        <v>70347</v>
+        <v>86329</v>
       </c>
       <c r="G93" t="n">
-        <v>984.8580000000001</v>
+        <v>1208.606</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>32.8</v>
       </c>
       <c r="J93" t="n">
         <v>300</v>
       </c>
       <c r="K93" t="n">
-        <v>1284.858</v>
+        <v>1541.406</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>2.445928</v>
+        <v>2.052568</v>
       </c>
       <c r="N93" t="n">
-        <v>3.7644</v>
+        <v>3.804200000000001</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5365,43 +5395,43 @@
         <v>198</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
         <v>199</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43269.4</v>
+        <v>43269.36666666667</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>43269.67638888889</v>
+        <v>43269.65069444444</v>
       </c>
       <c r="F94" t="n">
-        <v>102658</v>
+        <v>73398</v>
       </c>
       <c r="G94" t="n">
-        <v>1437.212</v>
+        <v>880.7760000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K94" t="n">
-        <v>1737.212</v>
+        <v>1111.176</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.89611</v>
+        <v>1.570451</v>
       </c>
       <c r="N94" t="n">
-        <v>1.6523</v>
+        <v>3.0322</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5409,43 +5439,43 @@
         <v>200</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>201</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>43269.37916666667</v>
+        <v>43269.44513888889</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>43269.63888888889</v>
+        <v>43269.67152777778</v>
       </c>
       <c r="F95" t="n">
-        <v>89976</v>
+        <v>93396</v>
       </c>
       <c r="G95" t="n">
-        <v>1259.664</v>
+        <v>1120.752</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K95" t="n">
-        <v>1580.864</v>
+        <v>1320.752</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>2.204192</v>
+        <v>0.899976</v>
       </c>
       <c r="N95" t="n">
-        <v>5.653300000000001</v>
+        <v>2.7123</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5453,43 +5483,43 @@
         <v>202</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
         <v>203</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>43269.39930555555</v>
+        <v>43269.36111111111</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>43269.66944444444</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="F96" t="n">
-        <v>83096</v>
+        <v>101819</v>
       </c>
       <c r="G96" t="n">
-        <v>997.152</v>
+        <v>1425.466</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>54.4</v>
+        <v>16.4</v>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
-        <v>1251.552</v>
+        <v>1741.866</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.951727</v>
+        <v>2.30313</v>
       </c>
       <c r="N96" t="n">
-        <v>2.578</v>
+        <v>4.6962</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5503,37 +5533,37 @@
         <v>205</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>43269.37847222222</v>
+        <v>43269.44236111111</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>43269.66041666667</v>
+        <v>43269.54583333333</v>
       </c>
       <c r="F97" t="n">
-        <v>90087</v>
+        <v>47056</v>
       </c>
       <c r="G97" t="n">
-        <v>1261.218</v>
+        <v>658.784</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>300</v>
       </c>
       <c r="K97" t="n">
-        <v>1607.218</v>
+        <v>958.784</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>2.332327</v>
+        <v>2.477464</v>
       </c>
       <c r="N97" t="n">
-        <v>4.5146</v>
+        <v>13.9228</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5547,16 +5577,16 @@
         <v>207</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>43269.43819444445</v>
+        <v>43269.44236111111</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>43269.67916666667</v>
+        <v>43269.60694444444</v>
       </c>
       <c r="F98" t="n">
-        <v>110168</v>
+        <v>70347</v>
       </c>
       <c r="G98" t="n">
-        <v>1542.352</v>
+        <v>984.8580000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -5568,16 +5598,16 @@
         <v>300</v>
       </c>
       <c r="K98" t="n">
-        <v>1842.352</v>
+        <v>1284.858</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>2.496338</v>
+        <v>2.445928</v>
       </c>
       <c r="N98" t="n">
-        <v>5.02</v>
+        <v>3.7644</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5591,37 +5621,37 @@
         <v>209</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>43269.43611111111</v>
+        <v>43269.4</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>43269.63819444444</v>
+        <v>43269.67638888889</v>
       </c>
       <c r="F99" t="n">
-        <v>71903</v>
+        <v>102658</v>
       </c>
       <c r="G99" t="n">
-        <v>1006.642</v>
+        <v>1437.212</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>32.8</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>300</v>
       </c>
       <c r="K99" t="n">
-        <v>1339.442</v>
+        <v>1737.212</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>2.476715</v>
+        <v>0.89611</v>
       </c>
       <c r="N99" t="n">
-        <v>4.378299999999999</v>
+        <v>1.6523</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5635,37 +5665,37 @@
         <v>211</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>43269.39305555556</v>
+        <v>43269.37916666667</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>43269.64444444444</v>
+        <v>43269.63888888889</v>
       </c>
       <c r="F100" t="n">
-        <v>109213</v>
+        <v>89976</v>
       </c>
       <c r="G100" t="n">
-        <v>1528.982</v>
+        <v>1259.664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>18.8</v>
+        <v>21.2</v>
       </c>
       <c r="J100" t="n">
         <v>300</v>
       </c>
       <c r="K100" t="n">
-        <v>1847.782</v>
+        <v>1580.864</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>2.39723</v>
+        <v>2.204192</v>
       </c>
       <c r="N100" t="n">
-        <v>5.945900000000001</v>
+        <v>5.653300000000001</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5679,37 +5709,37 @@
         <v>213</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>43269.43263888889</v>
+        <v>43269.39930555555</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>43269.66597222222</v>
+        <v>43269.66944444444</v>
       </c>
       <c r="F101" t="n">
-        <v>88190</v>
+        <v>83096</v>
       </c>
       <c r="G101" t="n">
-        <v>1058.28</v>
+        <v>997.152</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>30.8</v>
+        <v>54.4</v>
       </c>
       <c r="J101" t="n">
         <v>200</v>
       </c>
       <c r="K101" t="n">
-        <v>1289.08</v>
+        <v>1251.552</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1.87254</v>
+        <v>0.951727</v>
       </c>
       <c r="N101" t="n">
-        <v>3.081399999999999</v>
+        <v>2.578</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5723,37 +5753,37 @@
         <v>215</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>43269.42916666667</v>
+        <v>43269.37847222222</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>43269.61111111111</v>
+        <v>43269.66041666667</v>
       </c>
       <c r="F102" t="n">
-        <v>85946</v>
+        <v>90087</v>
       </c>
       <c r="G102" t="n">
-        <v>1203.244</v>
+        <v>1261.218</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>26.4</v>
+        <v>46</v>
       </c>
       <c r="J102" t="n">
         <v>300</v>
       </c>
       <c r="K102" t="n">
-        <v>1529.644</v>
+        <v>1607.218</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>2.35193</v>
+        <v>2.332327</v>
       </c>
       <c r="N102" t="n">
-        <v>4.0583</v>
+        <v>4.5146</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5761,43 +5791,43 @@
         <v>216</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
         <v>217</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>43269.36388888889</v>
+        <v>43269.43819444445</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>43269.64444444444</v>
+        <v>43269.67916666667</v>
       </c>
       <c r="F103" t="n">
-        <v>99323</v>
+        <v>110168</v>
       </c>
       <c r="G103" t="n">
-        <v>1191.876</v>
+        <v>1542.352</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K103" t="n">
-        <v>1457.076</v>
+        <v>1842.352</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1.687567</v>
+        <v>2.496338</v>
       </c>
       <c r="N103" t="n">
-        <v>2.6236</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5811,37 +5841,37 @@
         <v>219</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>43269.34166666667</v>
+        <v>43269.43611111111</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>43269.70486111111</v>
+        <v>43269.63819444444</v>
       </c>
       <c r="F104" t="n">
-        <v>136117</v>
+        <v>71903</v>
       </c>
       <c r="G104" t="n">
-        <v>1905.638</v>
+        <v>1006.642</v>
       </c>
       <c r="H104" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>34</v>
+        <v>32.8</v>
       </c>
       <c r="J104" t="n">
         <v>300</v>
       </c>
       <c r="K104" t="n">
-        <v>2289.638</v>
+        <v>1339.442</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>2.11807</v>
+        <v>2.476715</v>
       </c>
       <c r="N104" t="n">
-        <v>3.8624</v>
+        <v>4.378299999999999</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5855,37 +5885,37 @@
         <v>221</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>43269.36111111111</v>
+        <v>43269.39305555556</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>43269.54791666667</v>
+        <v>43269.64444444444</v>
       </c>
       <c r="F105" t="n">
-        <v>108874</v>
+        <v>109213</v>
       </c>
       <c r="G105" t="n">
-        <v>1524.236</v>
+        <v>1528.982</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="J105" t="n">
         <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>1842.636</v>
+        <v>1847.782</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>2.34458</v>
+        <v>2.39723</v>
       </c>
       <c r="N105" t="n">
-        <v>4.333500000000001</v>
+        <v>5.945900000000001</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5893,43 +5923,43 @@
         <v>222</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
         <v>223</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>43269.33958333333</v>
+        <v>43269.43263888889</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>43269.70138888889</v>
+        <v>43269.66597222222</v>
       </c>
       <c r="F106" t="n">
-        <v>131230</v>
+        <v>88190</v>
       </c>
       <c r="G106" t="n">
-        <v>1837.22</v>
+        <v>1058.28</v>
       </c>
       <c r="H106" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>60.4</v>
+        <v>30.8</v>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K106" t="n">
-        <v>2247.62</v>
+        <v>1289.08</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>2.18528</v>
+        <v>1.87254</v>
       </c>
       <c r="N106" t="n">
-        <v>10.2984</v>
+        <v>3.081399999999999</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5943,37 +5973,37 @@
         <v>225</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>43269.42013888889</v>
+        <v>43269.42916666667</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>43269.72083333333</v>
+        <v>43269.61111111111</v>
       </c>
       <c r="F107" t="n">
-        <v>148153</v>
+        <v>85946</v>
       </c>
       <c r="G107" t="n">
-        <v>2074.142</v>
+        <v>1203.244</v>
       </c>
       <c r="H107" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>28.8</v>
+        <v>26.4</v>
       </c>
       <c r="J107" t="n">
         <v>300</v>
       </c>
       <c r="K107" t="n">
-        <v>2452.942</v>
+        <v>1529.644</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>2.400221</v>
+        <v>2.35193</v>
       </c>
       <c r="N107" t="n">
-        <v>3.7176</v>
+        <v>4.0583</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5981,43 +6011,43 @@
         <v>226</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
         <v>227</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>43269.41944444444</v>
+        <v>43269.36388888889</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>43269.71111111111</v>
+        <v>43269.64444444444</v>
       </c>
       <c r="F108" t="n">
-        <v>140312</v>
+        <v>99323</v>
       </c>
       <c r="G108" t="n">
-        <v>1964.368</v>
+        <v>1191.876</v>
       </c>
       <c r="H108" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>26.8</v>
+        <v>65.2</v>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K108" t="n">
-        <v>2341.168</v>
+        <v>1457.076</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>2.43384</v>
+        <v>1.687567</v>
       </c>
       <c r="N108" t="n">
-        <v>3.6877</v>
+        <v>2.6236</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6031,37 +6061,37 @@
         <v>229</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>43269.33541666667</v>
+        <v>43269.34166666667</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>43269.63472222222</v>
+        <v>43269.70833333334</v>
       </c>
       <c r="F109" t="n">
-        <v>145441</v>
+        <v>139048</v>
       </c>
       <c r="G109" t="n">
-        <v>1745.292</v>
+        <v>1668.576</v>
       </c>
       <c r="H109" t="n">
         <v>50</v>
       </c>
       <c r="I109" t="n">
-        <v>16.8</v>
+        <v>34</v>
       </c>
       <c r="J109" t="n">
         <v>200</v>
       </c>
       <c r="K109" t="n">
-        <v>2012.092</v>
+        <v>1952.576</v>
       </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>0.531884</v>
+        <v>1.98151</v>
       </c>
       <c r="N109" t="n">
-        <v>2.2616</v>
+        <v>3.6962</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6075,37 +6105,37 @@
         <v>231</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>43269.35</v>
+        <v>43269.36111111111</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>43269.75416666667</v>
+        <v>43269.54791666667</v>
       </c>
       <c r="F110" t="n">
-        <v>185670</v>
+        <v>108874</v>
       </c>
       <c r="G110" t="n">
-        <v>2599.38</v>
+        <v>1524.236</v>
       </c>
       <c r="H110" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>46</v>
+        <v>18.4</v>
       </c>
       <c r="J110" t="n">
         <v>300</v>
       </c>
       <c r="K110" t="n">
-        <v>2995.38</v>
+        <v>1842.636</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>2.13069</v>
+        <v>2.34458</v>
       </c>
       <c r="N110" t="n">
-        <v>6.4445</v>
+        <v>4.333500000000001</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6119,37 +6149,37 @@
         <v>233</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>43269.39930555555</v>
+        <v>43269.33958333333</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>43269.71458333333</v>
+        <v>43269.70138888889</v>
       </c>
       <c r="F111" t="n">
-        <v>174715</v>
+        <v>131230</v>
       </c>
       <c r="G111" t="n">
-        <v>2446.01</v>
+        <v>1837.22</v>
       </c>
       <c r="H111" t="n">
         <v>50</v>
       </c>
       <c r="I111" t="n">
-        <v>12.4</v>
+        <v>60.4</v>
       </c>
       <c r="J111" t="n">
         <v>300</v>
       </c>
       <c r="K111" t="n">
-        <v>2808.41</v>
+        <v>2247.62</v>
       </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
       <c r="M111" t="n">
-        <v>1.0221</v>
+        <v>2.18528</v>
       </c>
       <c r="N111" t="n">
-        <v>1.8265</v>
+        <v>10.2984</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6166,34 +6196,34 @@
         <v>43269.42013888889</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>43269.72152777778</v>
+        <v>43269.72083333333</v>
       </c>
       <c r="F112" t="n">
-        <v>147310</v>
+        <v>148153</v>
       </c>
       <c r="G112" t="n">
-        <v>2062.34</v>
+        <v>2074.142</v>
       </c>
       <c r="H112" t="n">
         <v>50</v>
       </c>
       <c r="I112" t="n">
-        <v>16.8</v>
+        <v>28.8</v>
       </c>
       <c r="J112" t="n">
         <v>300</v>
       </c>
       <c r="K112" t="n">
-        <v>2429.14</v>
+        <v>2452.942</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>2.498635</v>
+        <v>2.400221</v>
       </c>
       <c r="N112" t="n">
-        <v>8.8779</v>
+        <v>3.7176</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6207,37 +6237,37 @@
         <v>237</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>43269.44027777778</v>
+        <v>43269.41944444444</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>43269.60416666666</v>
+        <v>43269.71111111111</v>
       </c>
       <c r="F113" t="n">
-        <v>104014</v>
+        <v>140312</v>
       </c>
       <c r="G113" t="n">
-        <v>1456.196</v>
+        <v>1964.368</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I113" t="n">
-        <v>20</v>
+        <v>26.8</v>
       </c>
       <c r="J113" t="n">
         <v>300</v>
       </c>
       <c r="K113" t="n">
-        <v>1776.196</v>
+        <v>2341.168</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>2.44935</v>
+        <v>2.43384</v>
       </c>
       <c r="N113" t="n">
-        <v>3.6652</v>
+        <v>3.6877</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6245,43 +6275,43 @@
         <v>238</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
         <v>239</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>43269.44722222222</v>
+        <v>43269.33541666667</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>43269.60416666666</v>
+        <v>43269.69513888889</v>
       </c>
       <c r="F114" t="n">
-        <v>50017</v>
+        <v>167907</v>
       </c>
       <c r="G114" t="n">
-        <v>600.2040000000001</v>
+        <v>2350.698</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I114" t="n">
-        <v>17.6</v>
+        <v>16.8</v>
       </c>
       <c r="J114" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>817.8040000000001</v>
+        <v>2717.498</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" t="n">
-        <v>0.956701</v>
+        <v>0.699284</v>
       </c>
       <c r="N114" t="n">
-        <v>1.9783</v>
+        <v>2.5961</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6295,37 +6325,37 @@
         <v>241</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>43269.42708333334</v>
+        <v>43269.35</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>43269.67083333333</v>
+        <v>43269.72638888889</v>
       </c>
       <c r="F115" t="n">
-        <v>100150</v>
+        <v>178396</v>
       </c>
       <c r="G115" t="n">
-        <v>1402.1</v>
+        <v>2497.544</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I115" t="n">
-        <v>30.8</v>
+        <v>46</v>
       </c>
       <c r="J115" t="n">
         <v>300</v>
       </c>
       <c r="K115" t="n">
-        <v>1732.9</v>
+        <v>2893.544</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="n">
-        <v>2.37054</v>
+        <v>1.968865</v>
       </c>
       <c r="N115" t="n">
-        <v>4.4049</v>
+        <v>4.0404</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6333,43 +6363,43 @@
         <v>242</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
         <v>243</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>43269.41736111111</v>
+        <v>43269.39930555555</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>43269.52013888889</v>
+        <v>43269.69861111111</v>
       </c>
       <c r="F116" t="n">
-        <v>96810</v>
+        <v>181133</v>
       </c>
       <c r="G116" t="n">
-        <v>1161.72</v>
+        <v>2535.862</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="J116" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
-        <v>1361.72</v>
+        <v>2898.262</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" t="n">
-        <v>1.69446</v>
+        <v>1.509515</v>
       </c>
       <c r="N116" t="n">
-        <v>4.7239</v>
+        <v>2.8013</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6383,37 +6413,37 @@
         <v>245</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>43269.55625</v>
+        <v>43269.42013888889</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>43269.61736111111</v>
+        <v>43269.72152777778</v>
       </c>
       <c r="F117" t="n">
-        <v>22343</v>
+        <v>147310</v>
       </c>
       <c r="G117" t="n">
-        <v>312.802</v>
+        <v>2062.34</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="J117" t="n">
         <v>300</v>
       </c>
       <c r="K117" t="n">
-        <v>612.802</v>
+        <v>2429.14</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
-        <v>2.3407</v>
+        <v>2.498635</v>
       </c>
       <c r="N117" t="n">
-        <v>5.013400000000001</v>
+        <v>8.8779</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6421,43 +6451,43 @@
         <v>246</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
         <v>247</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>43269.53194444445</v>
+        <v>43269.44027777778</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>43269.66458333333</v>
+        <v>43269.60416666666</v>
       </c>
       <c r="F118" t="n">
-        <v>56780</v>
+        <v>104014</v>
       </c>
       <c r="G118" t="n">
-        <v>681.36</v>
+        <v>1456.196</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J118" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K118" t="n">
-        <v>881.36</v>
+        <v>1776.196</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.9559599999999999</v>
+        <v>2.44935</v>
       </c>
       <c r="N118" t="n">
-        <v>1.8777</v>
+        <v>3.6652</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6471,37 +6501,37 @@
         <v>249</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>43269.53194444445</v>
+        <v>43269.44722222222</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>43269.625</v>
+        <v>43269.60416666666</v>
       </c>
       <c r="F119" t="n">
-        <v>35342</v>
+        <v>50017</v>
       </c>
       <c r="G119" t="n">
-        <v>424.104</v>
+        <v>600.2040000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="J119" t="n">
         <v>200</v>
       </c>
       <c r="K119" t="n">
-        <v>624.104</v>
+        <v>817.8040000000001</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1.23242</v>
+        <v>0.956701</v>
       </c>
       <c r="N119" t="n">
-        <v>6.0769</v>
+        <v>1.9783</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6509,43 +6539,43 @@
         <v>250</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
         <v>251</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>43269.51736111111</v>
+        <v>43269.42708333334</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>43269.67847222222</v>
+        <v>43269.67083333333</v>
       </c>
       <c r="F120" t="n">
-        <v>90989</v>
+        <v>100150</v>
       </c>
       <c r="G120" t="n">
-        <v>1091.868</v>
+        <v>1402.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="J120" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K120" t="n">
-        <v>1291.868</v>
+        <v>1732.9</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1.011057</v>
+        <v>2.37054</v>
       </c>
       <c r="N120" t="n">
-        <v>1.7091</v>
+        <v>4.4049</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6553,22 +6583,22 @@
         <v>252</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
         <v>253</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>43269.53680555556</v>
+        <v>43269.41736111111</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>43269.60902777778</v>
+        <v>43269.52013888889</v>
       </c>
       <c r="F121" t="n">
-        <v>61126</v>
+        <v>96810</v>
       </c>
       <c r="G121" t="n">
-        <v>855.764</v>
+        <v>1161.72</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -6577,19 +6607,19 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K121" t="n">
-        <v>1155.764</v>
+        <v>1361.72</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>2.3056</v>
+        <v>1.69446</v>
       </c>
       <c r="N121" t="n">
-        <v>3.5095</v>
+        <v>4.7239</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6597,22 +6627,22 @@
         <v>254</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
         <v>255</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>43269.53680555556</v>
+        <v>43269.55625</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>43269.63402777778</v>
+        <v>43269.61736111111</v>
       </c>
       <c r="F122" t="n">
-        <v>65611</v>
+        <v>22343</v>
       </c>
       <c r="G122" t="n">
-        <v>787.332</v>
+        <v>312.802</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -6621,19 +6651,19 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K122" t="n">
-        <v>987.332</v>
+        <v>612.802</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.175</v>
+        <v>2.3407</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4435</v>
+        <v>5.013400000000001</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6641,22 +6671,22 @@
         <v>256</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
         <v>257</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>43269.53541666667</v>
+        <v>43269.53194444445</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>43269.67152777778</v>
+        <v>43269.66458333333</v>
       </c>
       <c r="F123" t="n">
-        <v>86230</v>
+        <v>56780</v>
       </c>
       <c r="G123" t="n">
-        <v>1207.22</v>
+        <v>681.36</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -6665,19 +6695,19 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K123" t="n">
-        <v>1507.22</v>
+        <v>881.36</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>2.28325</v>
+        <v>0.9559599999999999</v>
       </c>
       <c r="N123" t="n">
-        <v>3.8267</v>
+        <v>1.8777</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6691,16 +6721,16 @@
         <v>259</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>43269.53402777778</v>
+        <v>43269.53194444445</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>43269.66597222222</v>
+        <v>43269.625</v>
       </c>
       <c r="F124" t="n">
-        <v>81523</v>
+        <v>35342</v>
       </c>
       <c r="G124" t="n">
-        <v>978.2760000000001</v>
+        <v>424.104</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -6712,16 +6742,16 @@
         <v>200</v>
       </c>
       <c r="K124" t="n">
-        <v>1178.276</v>
+        <v>624.104</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1.143644</v>
+        <v>1.23242</v>
       </c>
       <c r="N124" t="n">
-        <v>6.3372</v>
+        <v>6.0769</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6735,16 +6765,16 @@
         <v>261</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>43269.53125</v>
+        <v>43269.51736111111</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>43269.66666666666</v>
+        <v>43269.67847222222</v>
       </c>
       <c r="F125" t="n">
-        <v>86662</v>
+        <v>90989</v>
       </c>
       <c r="G125" t="n">
-        <v>1039.944</v>
+        <v>1091.868</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -6756,16 +6786,16 @@
         <v>200</v>
       </c>
       <c r="K125" t="n">
-        <v>1239.944</v>
+        <v>1291.868</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.8686200000000001</v>
+        <v>1.011057</v>
       </c>
       <c r="N125" t="n">
-        <v>1.9242</v>
+        <v>1.7091</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6779,16 +6809,16 @@
         <v>263</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>43269.52986111111</v>
+        <v>43269.53680555556</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>43269.65138888889</v>
+        <v>43269.60902777778</v>
       </c>
       <c r="F126" t="n">
-        <v>94452</v>
+        <v>61126</v>
       </c>
       <c r="G126" t="n">
-        <v>1322.328</v>
+        <v>855.764</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -6800,16 +6830,16 @@
         <v>300</v>
       </c>
       <c r="K126" t="n">
-        <v>1622.328</v>
+        <v>1155.764</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>2.41666</v>
+        <v>2.3056</v>
       </c>
       <c r="N126" t="n">
-        <v>4.3161</v>
+        <v>3.5095</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6823,19 +6853,19 @@
         <v>265</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>43269.50763888889</v>
+        <v>43269.53680555556</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>43269.72847222222</v>
+        <v>43269.63402777778</v>
       </c>
       <c r="F127" t="n">
-        <v>162850</v>
+        <v>65611</v>
       </c>
       <c r="G127" t="n">
-        <v>1954.2</v>
+        <v>787.332</v>
       </c>
       <c r="H127" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -6844,16 +6874,16 @@
         <v>200</v>
       </c>
       <c r="K127" t="n">
-        <v>2204.2</v>
+        <v>987.332</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>1.77466</v>
+        <v>0.175</v>
       </c>
       <c r="N127" t="n">
-        <v>3.3541</v>
+        <v>0.4435</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6861,22 +6891,22 @@
         <v>266</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
         <v>267</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>43269.54444444444</v>
+        <v>43269.53541666667</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>43269.60138888889</v>
+        <v>43269.67152777778</v>
       </c>
       <c r="F128" t="n">
-        <v>42974</v>
+        <v>86230</v>
       </c>
       <c r="G128" t="n">
-        <v>515.688</v>
+        <v>1207.22</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -6885,19 +6915,19 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K128" t="n">
-        <v>715.688</v>
+        <v>1507.22</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0.02485</v>
+        <v>2.28325</v>
       </c>
       <c r="N128" t="n">
-        <v>0.047</v>
+        <v>3.8267</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6911,16 +6941,16 @@
         <v>269</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>43269.50694444445</v>
+        <v>43269.53402777778</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>43269.62361111111</v>
+        <v>43269.66597222222</v>
       </c>
       <c r="F129" t="n">
-        <v>88332</v>
+        <v>81523</v>
       </c>
       <c r="G129" t="n">
-        <v>1059.984</v>
+        <v>978.2760000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -6932,16 +6962,16 @@
         <v>200</v>
       </c>
       <c r="K129" t="n">
-        <v>1259.984</v>
+        <v>1178.276</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0.324</v>
+        <v>1.143644</v>
       </c>
       <c r="N129" t="n">
-        <v>1.1958</v>
+        <v>6.3372</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6949,22 +6979,22 @@
         <v>270</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
         <v>271</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>43269.50277777778</v>
+        <v>43269.53125</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>43269.66458333333</v>
+        <v>43269.66666666666</v>
       </c>
       <c r="F130" t="n">
-        <v>117708</v>
+        <v>86662</v>
       </c>
       <c r="G130" t="n">
-        <v>1647.912</v>
+        <v>1039.944</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -6973,19 +7003,19 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K130" t="n">
-        <v>1947.912</v>
+        <v>1239.944</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>2.0848</v>
+        <v>0.8686200000000001</v>
       </c>
       <c r="N130" t="n">
-        <v>10.7581</v>
+        <v>1.9242</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6993,22 +7023,22 @@
         <v>272</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
         <v>273</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>43269.51944444444</v>
+        <v>43269.52986111111</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>43269.58472222222</v>
+        <v>43269.65138888889</v>
       </c>
       <c r="F131" t="n">
-        <v>52266</v>
+        <v>94452</v>
       </c>
       <c r="G131" t="n">
-        <v>627.192</v>
+        <v>1322.328</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -7017,19 +7047,19 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K131" t="n">
-        <v>827.192</v>
+        <v>1622.328</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0.22615</v>
+        <v>2.41666</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3522</v>
+        <v>4.3161</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7037,43 +7067,43 @@
         <v>274</v>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>275</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>43269.51041666666</v>
+        <v>43269.50763888889</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>43269.67013888889</v>
+        <v>43269.66458333333</v>
       </c>
       <c r="F132" t="n">
-        <v>89237</v>
+        <v>137405</v>
       </c>
       <c r="G132" t="n">
-        <v>1249.318</v>
+        <v>1648.86</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K132" t="n">
-        <v>1549.318</v>
+        <v>1898.86</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
-        <v>2.28638</v>
+        <v>1.05882</v>
       </c>
       <c r="N132" t="n">
-        <v>3.4627</v>
+        <v>1.7261</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7087,16 +7117,16 @@
         <v>277</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>43269.53055555555</v>
+        <v>43269.54444444444</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>43269.69097222222</v>
+        <v>43269.60138888889</v>
       </c>
       <c r="F133" t="n">
-        <v>90225</v>
+        <v>42974</v>
       </c>
       <c r="G133" t="n">
-        <v>1082.7</v>
+        <v>515.688</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -7108,16 +7138,16 @@
         <v>200</v>
       </c>
       <c r="K133" t="n">
-        <v>1282.7</v>
+        <v>715.688</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0.339443</v>
+        <v>0.02485</v>
       </c>
       <c r="N133" t="n">
-        <v>0.8358</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7131,16 +7161,16 @@
         <v>279</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>43269.50347222222</v>
+        <v>43269.50277777778</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>43269.63333333333</v>
+        <v>43269.66458333333</v>
       </c>
       <c r="F134" t="n">
-        <v>104587</v>
+        <v>117708</v>
       </c>
       <c r="G134" t="n">
-        <v>1464.218</v>
+        <v>1647.912</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -7152,16 +7182,16 @@
         <v>300</v>
       </c>
       <c r="K134" t="n">
-        <v>1764.218</v>
+        <v>1947.912</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>1.75258</v>
+        <v>2.0848</v>
       </c>
       <c r="N134" t="n">
-        <v>2.5893</v>
+        <v>10.7581</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7175,19 +7205,19 @@
         <v>281</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>43269.47916666666</v>
+        <v>43269.51944444444</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>43269.67916666667</v>
+        <v>43269.58472222222</v>
       </c>
       <c r="F135" t="n">
-        <v>163445</v>
+        <v>52266</v>
       </c>
       <c r="G135" t="n">
-        <v>1961.34</v>
+        <v>627.192</v>
       </c>
       <c r="H135" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -7196,16 +7226,16 @@
         <v>200</v>
       </c>
       <c r="K135" t="n">
-        <v>2211.34</v>
+        <v>827.192</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0.70355</v>
+        <v>0.22615</v>
       </c>
       <c r="N135" t="n">
-        <v>5.327900000000001</v>
+        <v>0.3522</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7219,16 +7249,16 @@
         <v>283</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>43269.55277777778</v>
+        <v>43269.51041666666</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>43269.59305555555</v>
+        <v>43269.62569444445</v>
       </c>
       <c r="F136" t="n">
-        <v>22986</v>
+        <v>86229</v>
       </c>
       <c r="G136" t="n">
-        <v>275.832</v>
+        <v>1034.748</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -7240,16 +7270,16 @@
         <v>200</v>
       </c>
       <c r="K136" t="n">
-        <v>475.832</v>
+        <v>1234.748</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>0.163</v>
+        <v>1.14452</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2861</v>
+        <v>2.0035</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7263,16 +7293,16 @@
         <v>285</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>43269.53472222222</v>
+        <v>43269.53055555555</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>43269.67361111111</v>
+        <v>43269.69097222222</v>
       </c>
       <c r="F137" t="n">
-        <v>89692</v>
+        <v>90225</v>
       </c>
       <c r="G137" t="n">
-        <v>1076.304</v>
+        <v>1082.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -7284,16 +7314,16 @@
         <v>200</v>
       </c>
       <c r="K137" t="n">
-        <v>1276.304</v>
+        <v>1282.7</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>1.172404</v>
+        <v>0.339443</v>
       </c>
       <c r="N137" t="n">
-        <v>1.5664</v>
+        <v>0.8358</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7301,22 +7331,22 @@
         <v>286</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
         <v>287</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>43269.50486111111</v>
+        <v>43269.50347222222</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>43269.59930555556</v>
+        <v>43269.63333333333</v>
       </c>
       <c r="F138" t="n">
-        <v>86714</v>
+        <v>104587</v>
       </c>
       <c r="G138" t="n">
-        <v>1040.568</v>
+        <v>1464.218</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -7325,19 +7355,19 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K138" t="n">
-        <v>1240.568</v>
+        <v>1764.218</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.81876</v>
+        <v>1.75258</v>
       </c>
       <c r="N138" t="n">
-        <v>1.2827</v>
+        <v>2.5893</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7351,19 +7381,19 @@
         <v>289</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>43269.50347222222</v>
+        <v>43269.48680555556</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>43269.60069444445</v>
+        <v>43269.64236111111</v>
       </c>
       <c r="F139" t="n">
-        <v>90426</v>
+        <v>135771</v>
       </c>
       <c r="G139" t="n">
-        <v>1085.112</v>
+        <v>1629.252</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -7372,16 +7402,16 @@
         <v>200</v>
       </c>
       <c r="K139" t="n">
-        <v>1285.112</v>
+        <v>1879.252</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="n">
-        <v>1.155125</v>
+        <v>0.0134</v>
       </c>
       <c r="N139" t="n">
-        <v>1.8828</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7389,22 +7419,22 @@
         <v>290</v>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
         <v>291</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>43269.49722222222</v>
+        <v>43269.55277777778</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>43269.60694444444</v>
+        <v>43269.59305555555</v>
       </c>
       <c r="F140" t="n">
-        <v>106164</v>
+        <v>22986</v>
       </c>
       <c r="G140" t="n">
-        <v>1486.296</v>
+        <v>275.832</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -7413,19 +7443,19 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>1786.296</v>
+        <v>475.832</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>0.54094</v>
+        <v>0.163</v>
       </c>
       <c r="N140" t="n">
-        <v>0.9143</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7433,22 +7463,22 @@
         <v>292</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
         <v>293</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>43269.49236111111</v>
+        <v>43269.54444444444</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>43269.61180555556</v>
+        <v>43269.66597222222</v>
       </c>
       <c r="F141" t="n">
-        <v>118078</v>
+        <v>69429</v>
       </c>
       <c r="G141" t="n">
-        <v>1653.092</v>
+        <v>833.148</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -7457,19 +7487,19 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K141" t="n">
-        <v>1953.092</v>
+        <v>1033.148</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>0.01275</v>
+        <v>1.40058</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0707</v>
+        <v>1.9517</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7477,43 +7507,43 @@
         <v>294</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
         <v>295</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>43269.50833333333</v>
+        <v>43269.53472222222</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>43269.66527777778</v>
+        <v>43269.67361111111</v>
       </c>
       <c r="F142" t="n">
-        <v>137063</v>
+        <v>89692</v>
       </c>
       <c r="G142" t="n">
-        <v>1918.882</v>
+        <v>1076.304</v>
       </c>
       <c r="H142" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>2268.882</v>
+        <v>1276.304</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>2.18692</v>
+        <v>1.172404</v>
       </c>
       <c r="N142" t="n">
-        <v>3.5475</v>
+        <v>1.5664</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7527,19 +7557,19 @@
         <v>297</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>43269.50277777778</v>
+        <v>43269.50486111111</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>43269.66805555556</v>
+        <v>43269.59930555556</v>
       </c>
       <c r="F143" t="n">
-        <v>148136</v>
+        <v>86714</v>
       </c>
       <c r="G143" t="n">
-        <v>1777.632</v>
+        <v>1040.568</v>
       </c>
       <c r="H143" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -7548,16 +7578,236 @@
         <v>200</v>
       </c>
       <c r="K143" t="n">
-        <v>2027.632</v>
+        <v>1240.568</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0.7043199999999999</v>
+        <v>0.81876</v>
       </c>
       <c r="N143" t="n">
-        <v>1.3673</v>
+        <v>1.2827</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>299</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>43269.50347222222</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>43269.60069444445</v>
+      </c>
+      <c r="F144" t="n">
+        <v>90426</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1085.112</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>200</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1285.112</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.155125</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1.8828</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>300</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>301</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>43269.49722222222</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>43269.60694444444</v>
+      </c>
+      <c r="F145" t="n">
+        <v>106164</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1486.296</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>300</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1786.296</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.54094</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.9143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>303</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>43269.50833333333</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>43269.69861111111</v>
+      </c>
+      <c r="F146" t="n">
+        <v>152036</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2128.504</v>
+      </c>
+      <c r="H146" t="n">
+        <v>50</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>300</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2478.504</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2.48592</v>
+      </c>
+      <c r="N146" t="n">
+        <v>5.8862</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>305</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>43269.50486111111</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>43269.67152777778</v>
+      </c>
+      <c r="F147" t="n">
+        <v>147846</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1774.152</v>
+      </c>
+      <c r="H147" t="n">
+        <v>50</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>200</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2024.152</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.45934</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.7387</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>307</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>43269.49652777778</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>43269.67361111111</v>
+      </c>
+      <c r="F148" t="n">
+        <v>161122</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1933.464</v>
+      </c>
+      <c r="H148" t="n">
+        <v>50</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>200</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2183.464</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.04723</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.0964</v>
       </c>
     </row>
   </sheetData>
